--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galli/Documents/OrgConferenze/24PisaMeeting/pisameet/pm2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487AA74-C628-8641-AA3B-2B7D9C31F4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D71C63-80C7-2549-997F-B7C000E29059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="27260" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1022">
   <si>
     <t>Session ID</t>
   </si>
@@ -3097,6 +3097,9 @@
   </si>
   <si>
     <t>Kyung Hee University</t>
+  </si>
+  <si>
+    <t>18/05/2024 08:00</t>
   </si>
 </sst>
 </file>
@@ -3160,7 +3163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3498,7 +3501,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3529,8 +3532,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>45430.333333333336</v>
+      <c r="C2" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3543,8 +3546,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>45430.333333333336</v>
+      <c r="C3" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galli/Documents/OrgConferenze/24PisaMeeting/pisameet/pm2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D71C63-80C7-2549-997F-B7C000E29059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289EC93-89DF-4348-8148-69D64110FB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="27260" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="27260" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>288</t>
   </si>
   <si>
-    <t>Gain stability of Hamamatsu 5912-MOD photo-mutlipliers at low temperature</t>
-  </si>
-  <si>
     <t>Clara</t>
   </si>
   <si>
@@ -3100,6 +3097,9 @@
   </si>
   <si>
     <t>18/05/2024 08:00</t>
+  </si>
+  <si>
+    <t>Gain stability of Hamamatsu 5912-RMOD photo-multipliers at low temperature</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3533,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3547,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B2">
         <v>227765</v>
@@ -3763,21 +3763,21 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E2" t="s">
         <v>973</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>974</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>975</v>
-      </c>
-      <c r="G2" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B3">
         <v>227601</v>
@@ -3786,21 +3786,21 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
         <v>978</v>
       </c>
-      <c r="E3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" t="s">
-        <v>979</v>
-      </c>
       <c r="G3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B4">
         <v>227978</v>
@@ -3809,21 +3809,21 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>980</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
         <v>981</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>982</v>
-      </c>
-      <c r="G4" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B5">
         <v>227253</v>
@@ -3832,21 +3832,21 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" t="s">
         <v>985</v>
       </c>
-      <c r="E5" t="s">
-        <v>580</v>
-      </c>
-      <c r="F5" t="s">
-        <v>986</v>
-      </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B6">
         <v>227811</v>
@@ -3855,21 +3855,21 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>987</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
         <v>988</v>
       </c>
-      <c r="E6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" t="s">
-        <v>989</v>
-      </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B7">
         <v>227366</v>
@@ -3878,21 +3878,21 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>990</v>
+      </c>
+      <c r="E7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F7" t="s">
         <v>991</v>
       </c>
-      <c r="E7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F7" t="s">
-        <v>992</v>
-      </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B8">
         <v>227346</v>
@@ -3901,21 +3901,21 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>993</v>
+      </c>
+      <c r="E8" t="s">
         <v>994</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>995</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>996</v>
-      </c>
-      <c r="G8" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B9">
         <v>227697</v>
@@ -3924,21 +3924,21 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
         <v>999</v>
       </c>
-      <c r="E9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1000</v>
-      </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>227731</v>
@@ -3947,21 +3947,21 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s">
         <v>1002</v>
       </c>
-      <c r="E10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1003</v>
-      </c>
       <c r="G10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B11">
         <v>227378</v>
@@ -3970,21 +3970,21 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E11" t="s">
         <v>1005</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1006</v>
       </c>
-      <c r="F11" t="s">
-        <v>1007</v>
-      </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B12">
         <v>227568</v>
@@ -3993,21 +3993,21 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B13">
         <v>227384</v>
@@ -4016,21 +4016,21 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E13" t="s">
+        <v>738</v>
+      </c>
+      <c r="F13" t="s">
         <v>1011</v>
       </c>
-      <c r="E13" t="s">
-        <v>739</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1012</v>
-      </c>
       <c r="G13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14">
         <v>227600</v>
@@ -4039,21 +4039,21 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E14" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" t="s">
         <v>1014</v>
       </c>
-      <c r="E14" t="s">
-        <v>638</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1015</v>
-      </c>
       <c r="G14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B15">
         <v>227338</v>
@@ -4062,16 +4062,16 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E15" t="s">
         <v>1017</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>1018</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>1019</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -4084,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4429,21 +4429,21 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>227571</v>
@@ -4452,21 +4452,21 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>227799</v>
@@ -4475,21 +4475,21 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>227356</v>
@@ -4498,21 +4498,21 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
         <v>117</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>118</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19">
         <v>227609</v>
@@ -4521,21 +4521,21 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>93</v>
       </c>
       <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>227746</v>
@@ -4544,21 +4544,21 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
         <v>126</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>127</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <v>227586</v>
@@ -4567,21 +4567,21 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <v>227701</v>
@@ -4590,21 +4590,21 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
         <v>135</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>137</v>
-      </c>
-      <c r="G22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>227603</v>
@@ -4613,16 +4613,16 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>141</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>227795</v>
@@ -4681,21 +4681,21 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
         <v>145</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>227777</v>
@@ -4704,21 +4704,21 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>151</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>227535</v>
@@ -4727,21 +4727,21 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>156</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>227552</v>
@@ -4750,21 +4750,21 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>227611</v>
@@ -4773,21 +4773,21 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>167</v>
-      </c>
-      <c r="G6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>227723</v>
@@ -4796,21 +4796,21 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>172</v>
-      </c>
-      <c r="G7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>227354</v>
@@ -4819,21 +4819,21 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
         <v>175</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>176</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>177</v>
-      </c>
-      <c r="G8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>227718</v>
@@ -4842,21 +4842,21 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
         <v>180</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>181</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>182</v>
-      </c>
-      <c r="G9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>227543</v>
@@ -4865,21 +4865,21 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
         <v>185</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>186</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>187</v>
-      </c>
-      <c r="G10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>227592</v>
@@ -4888,21 +4888,21 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
         <v>190</v>
       </c>
-      <c r="E11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" t="s">
-        <v>191</v>
-      </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12">
         <v>227327</v>
@@ -4911,21 +4911,21 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
         <v>194</v>
-      </c>
-      <c r="G12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>227698</v>
@@ -4934,13 +4934,13 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
         <v>197</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" t="s">
-        <v>199</v>
       </c>
       <c r="G13" t="s">
         <v>40</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14">
         <v>227803</v>
@@ -4957,21 +4957,21 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
         <v>201</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>202</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>203</v>
-      </c>
-      <c r="G14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15">
         <v>227360</v>
@@ -4980,21 +4980,21 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>207</v>
       </c>
-      <c r="F15" t="s">
-        <v>208</v>
-      </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>231157</v>
@@ -5003,13 +5003,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
         <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" t="s">
-        <v>211</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17">
         <v>227946</v>
@@ -5026,21 +5026,21 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
         <v>207</v>
       </c>
-      <c r="F17" t="s">
-        <v>208</v>
-      </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18">
         <v>227358</v>
@@ -5049,21 +5049,21 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
         <v>215</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>216</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>217</v>
-      </c>
-      <c r="G18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19">
         <v>227362</v>
@@ -5072,21 +5072,21 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
         <v>220</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>221</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>222</v>
-      </c>
-      <c r="G19" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20">
         <v>227364</v>
@@ -5095,21 +5095,21 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" t="s">
         <v>225</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>226</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>227</v>
-      </c>
-      <c r="G20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21">
         <v>227598</v>
@@ -5118,21 +5118,21 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" t="s">
         <v>230</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>231</v>
       </c>
-      <c r="F21" t="s">
-        <v>232</v>
-      </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>227826</v>
@@ -5141,21 +5141,21 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
         <v>234</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>235</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>236</v>
-      </c>
-      <c r="G22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23">
         <v>227802</v>
@@ -5164,21 +5164,21 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
         <v>239</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>240</v>
       </c>
-      <c r="F23" t="s">
-        <v>241</v>
-      </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24">
         <v>227562</v>
@@ -5187,16 +5187,16 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" t="s">
         <v>243</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>244</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>245</v>
-      </c>
-      <c r="G24" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>227741</v>
@@ -5255,21 +5255,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" t="s">
         <v>248</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>249</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>250</v>
-      </c>
-      <c r="G2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3">
         <v>227330</v>
@@ -5278,21 +5278,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
         <v>253</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>254</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>255</v>
-      </c>
-      <c r="G3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4">
         <v>227554</v>
@@ -5301,13 +5301,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
         <v>258</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>259</v>
-      </c>
-      <c r="F4" t="s">
-        <v>260</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>227258</v>
@@ -5324,21 +5324,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
         <v>262</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>263</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>264</v>
-      </c>
-      <c r="G5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>227347</v>
@@ -5347,21 +5347,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" t="s">
         <v>267</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>268</v>
       </c>
-      <c r="F6" t="s">
-        <v>269</v>
-      </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7">
         <v>227782</v>
@@ -5370,21 +5370,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
         <v>271</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>272</v>
       </c>
-      <c r="F7" t="s">
-        <v>273</v>
-      </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8">
         <v>227537</v>
@@ -5393,21 +5393,21 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
         <v>275</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>276</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>277</v>
-      </c>
-      <c r="G8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9">
         <v>227374</v>
@@ -5416,13 +5416,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
         <v>280</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>281</v>
-      </c>
-      <c r="F9" t="s">
-        <v>282</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10">
         <v>227557</v>
@@ -5439,21 +5439,21 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
         <v>284</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>285</v>
       </c>
-      <c r="F10" t="s">
-        <v>286</v>
-      </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>227818</v>
@@ -5462,21 +5462,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
         <v>288</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>289</v>
       </c>
-      <c r="F11" t="s">
-        <v>290</v>
-      </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12">
         <v>227342</v>
@@ -5485,13 +5485,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
         <v>292</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>294</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13">
         <v>227373</v>
@@ -5508,13 +5508,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" t="s">
         <v>296</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>297</v>
-      </c>
-      <c r="F13" t="s">
-        <v>298</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14">
         <v>227816</v>
@@ -5531,21 +5531,21 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" t="s">
         <v>300</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>302</v>
-      </c>
-      <c r="G14" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15">
         <v>228273</v>
@@ -5554,21 +5554,21 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" t="s">
         <v>305</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>306</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>307</v>
-      </c>
-      <c r="G15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16">
         <v>227337</v>
@@ -5577,21 +5577,21 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" t="s">
         <v>310</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>311</v>
       </c>
-      <c r="F16" t="s">
-        <v>312</v>
-      </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17">
         <v>227564</v>
@@ -5600,21 +5600,21 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" t="s">
         <v>314</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>315</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>316</v>
-      </c>
-      <c r="G17" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18">
         <v>227821</v>
@@ -5623,21 +5623,21 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" t="s">
         <v>319</v>
       </c>
-      <c r="E18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" t="s">
-        <v>320</v>
-      </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19">
         <v>227370</v>
@@ -5646,21 +5646,21 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" t="s">
         <v>322</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>323</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>324</v>
-      </c>
-      <c r="G19" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B20">
         <v>227365</v>
@@ -5669,21 +5669,21 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
       </c>
       <c r="F20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" t="s">
         <v>328</v>
-      </c>
-      <c r="G20" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B21">
         <v>227352</v>
@@ -5692,21 +5692,21 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" t="s">
         <v>331</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>332</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>333</v>
-      </c>
-      <c r="G21" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22">
         <v>227812</v>
@@ -5715,21 +5715,21 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" t="s">
         <v>336</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>337</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>338</v>
-      </c>
-      <c r="G22" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23">
         <v>227769</v>
@@ -5738,21 +5738,21 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
         <v>341</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>342</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>343</v>
-      </c>
-      <c r="G23" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24">
         <v>227589</v>
@@ -5761,21 +5761,21 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
         <v>346</v>
       </c>
-      <c r="E24" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>347</v>
-      </c>
-      <c r="G24" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25">
         <v>227579</v>
@@ -5784,21 +5784,21 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s">
         <v>350</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>351</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>352</v>
-      </c>
-      <c r="G25" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26">
         <v>227252</v>
@@ -5807,21 +5807,21 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" t="s">
         <v>355</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>356</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>357</v>
-      </c>
-      <c r="G26" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B27">
         <v>227544</v>
@@ -5830,21 +5830,21 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" t="s">
         <v>360</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>361</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>362</v>
-      </c>
-      <c r="G27" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28">
         <v>228131</v>
@@ -5853,21 +5853,21 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" t="s">
         <v>365</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>366</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>367</v>
-      </c>
-      <c r="G28" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B29">
         <v>227608</v>
@@ -5876,21 +5876,21 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" t="s">
         <v>370</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>371</v>
       </c>
-      <c r="F29" t="s">
-        <v>372</v>
-      </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B30">
         <v>227404</v>
@@ -5899,21 +5899,21 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" t="s">
         <v>374</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>375</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>376</v>
-      </c>
-      <c r="G30" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31">
         <v>227610</v>
@@ -5922,21 +5922,21 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" t="s">
         <v>379</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>380</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>381</v>
-      </c>
-      <c r="G31" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32">
         <v>227536</v>
@@ -5945,21 +5945,21 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" t="s">
         <v>384</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>385</v>
       </c>
-      <c r="F32" t="s">
-        <v>386</v>
-      </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B33">
         <v>227323</v>
@@ -5968,21 +5968,21 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" t="s">
         <v>388</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>389</v>
       </c>
-      <c r="F33" t="s">
-        <v>390</v>
-      </c>
       <c r="G33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B34">
         <v>227829</v>
@@ -5991,21 +5991,21 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E34" t="s">
         <v>392</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>393</v>
       </c>
-      <c r="F34" t="s">
-        <v>394</v>
-      </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B35">
         <v>227590</v>
@@ -6014,21 +6014,21 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" t="s">
         <v>396</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>397</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>398</v>
-      </c>
-      <c r="G35" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B36">
         <v>227344</v>
@@ -6037,21 +6037,21 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" t="s">
         <v>401</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>402</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>403</v>
-      </c>
-      <c r="G36" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B37">
         <v>227271</v>
@@ -6060,13 +6060,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2">
         <v>228128</v>
@@ -6128,21 +6128,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
         <v>408</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>409</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>410</v>
-      </c>
-      <c r="G2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3">
         <v>227299</v>
@@ -6151,21 +6151,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" t="s">
         <v>413</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>414</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>415</v>
-      </c>
-      <c r="G3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4">
         <v>227325</v>
@@ -6174,21 +6174,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
         <v>418</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>419</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>420</v>
-      </c>
-      <c r="G4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5">
         <v>227375</v>
@@ -6197,21 +6197,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" t="s">
         <v>423</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>424</v>
       </c>
-      <c r="F5" t="s">
-        <v>425</v>
-      </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B6">
         <v>227262</v>
@@ -6220,13 +6220,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" t="s">
         <v>427</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>428</v>
-      </c>
-      <c r="F6" t="s">
-        <v>429</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7">
         <v>227604</v>
@@ -6243,21 +6243,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
         <v>431</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>432</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>433</v>
-      </c>
-      <c r="G7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>227595</v>
@@ -6266,21 +6266,21 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" t="s">
         <v>436</v>
       </c>
-      <c r="E8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" t="s">
-        <v>437</v>
-      </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9">
         <v>227313</v>
@@ -6289,21 +6289,21 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
         <v>439</v>
       </c>
-      <c r="E9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>440</v>
-      </c>
-      <c r="G9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10">
         <v>227736</v>
@@ -6312,21 +6312,21 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" t="s">
         <v>443</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>444</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>445</v>
-      </c>
-      <c r="G10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>227312</v>
@@ -6335,21 +6335,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
         <v>448</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>449</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>450</v>
-      </c>
-      <c r="G11" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12">
         <v>227538</v>
@@ -6358,21 +6358,21 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" t="s">
         <v>453</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>454</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>455</v>
-      </c>
-      <c r="G12" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13">
         <v>227556</v>
@@ -6381,13 +6381,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" t="s">
         <v>458</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>459</v>
-      </c>
-      <c r="F13" t="s">
-        <v>460</v>
       </c>
       <c r="G13" t="s">
         <v>60</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14">
         <v>227539</v>
@@ -6404,21 +6404,21 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" t="s">
         <v>462</v>
       </c>
-      <c r="E14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>463</v>
-      </c>
-      <c r="G14" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15">
         <v>227582</v>
@@ -6427,21 +6427,21 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" t="s">
         <v>466</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>467</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>468</v>
-      </c>
-      <c r="G15" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B16">
         <v>227733</v>
@@ -6450,13 +6450,13 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" t="s">
         <v>459</v>
-      </c>
-      <c r="F16" t="s">
-        <v>460</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B17">
         <v>227839</v>
@@ -6473,21 +6473,21 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" t="s">
         <v>473</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>474</v>
       </c>
-      <c r="F17" t="s">
-        <v>475</v>
-      </c>
       <c r="G17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B18">
         <v>227820</v>
@@ -6496,21 +6496,21 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" t="s">
         <v>477</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>479</v>
-      </c>
-      <c r="G18" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B19">
         <v>227606</v>
@@ -6519,21 +6519,21 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" t="s">
         <v>482</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>483</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>484</v>
-      </c>
-      <c r="G19" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B20">
         <v>227721</v>
@@ -6542,21 +6542,21 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" t="s">
         <v>487</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>488</v>
       </c>
-      <c r="F20" t="s">
-        <v>489</v>
-      </c>
       <c r="G20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21">
         <v>227302</v>
@@ -6565,21 +6565,21 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" t="s">
         <v>491</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>492</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>493</v>
-      </c>
-      <c r="G21" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22">
         <v>227727</v>
@@ -6588,21 +6588,21 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E22" t="s">
         <v>496</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>497</v>
       </c>
-      <c r="F22" t="s">
-        <v>498</v>
-      </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23">
         <v>227558</v>
@@ -6611,21 +6611,21 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
+        <v>499</v>
+      </c>
+      <c r="E23" t="s">
         <v>500</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>501</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>502</v>
-      </c>
-      <c r="G23" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B24">
         <v>227725</v>
@@ -6634,21 +6634,21 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
         <v>171</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>172</v>
-      </c>
-      <c r="G24" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B25">
         <v>227551</v>
@@ -6657,13 +6657,13 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B26">
         <v>227314</v>
@@ -6680,21 +6680,21 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" t="s">
         <v>510</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>511</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>512</v>
-      </c>
-      <c r="G26" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B27">
         <v>227813</v>
@@ -6703,13 +6703,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" t="s">
         <v>515</v>
-      </c>
-      <c r="E27" t="s">
-        <v>281</v>
-      </c>
-      <c r="F27" t="s">
-        <v>516</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B28">
         <v>227324</v>
@@ -6726,13 +6726,13 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>517</v>
+      </c>
+      <c r="E28" t="s">
         <v>518</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>519</v>
-      </c>
-      <c r="F28" t="s">
-        <v>520</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B29">
         <v>227585</v>
@@ -6749,21 +6749,21 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" t="s">
         <v>522</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G29" t="s">
         <v>523</v>
-      </c>
-      <c r="F29" t="s">
-        <v>450</v>
-      </c>
-      <c r="G29" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B30">
         <v>227565</v>
@@ -6772,21 +6772,21 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
+        <v>525</v>
+      </c>
+      <c r="E30" t="s">
         <v>526</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>527</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>528</v>
-      </c>
-      <c r="G30" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B31">
         <v>229788</v>
@@ -6795,21 +6795,21 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>530</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
         <v>531</v>
       </c>
-      <c r="E31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" t="s">
-        <v>532</v>
-      </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B32">
         <v>227383</v>
@@ -6818,21 +6818,21 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E32" t="s">
         <v>534</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>535</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>536</v>
-      </c>
-      <c r="G32" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B33">
         <v>227266</v>
@@ -6841,16 +6841,16 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" t="s">
         <v>539</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>540</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>541</v>
-      </c>
-      <c r="G33" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B2">
         <v>227801</v>
@@ -6909,21 +6909,21 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
         <v>544</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>545</v>
       </c>
-      <c r="F2" t="s">
-        <v>546</v>
-      </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>227584</v>
@@ -6932,13 +6932,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" t="s">
         <v>548</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>549</v>
-      </c>
-      <c r="F3" t="s">
-        <v>550</v>
       </c>
       <c r="G3" t="s">
         <v>90</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B4">
         <v>227294</v>
@@ -6955,21 +6955,21 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" t="s">
         <v>552</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>553</v>
       </c>
-      <c r="F4" t="s">
-        <v>554</v>
-      </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B5">
         <v>227305</v>
@@ -6978,21 +6978,21 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" t="s">
         <v>556</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>557</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>558</v>
-      </c>
-      <c r="G5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6">
         <v>227755</v>
@@ -7001,21 +7001,21 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" t="s">
         <v>561</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>562</v>
       </c>
-      <c r="F6" t="s">
-        <v>563</v>
-      </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7">
         <v>227817</v>
@@ -7024,21 +7024,21 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" t="s">
         <v>565</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>566</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>567</v>
-      </c>
-      <c r="G7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B8">
         <v>227276</v>
@@ -7047,21 +7047,21 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" t="s">
         <v>570</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>571</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>572</v>
-      </c>
-      <c r="G8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9">
         <v>227780</v>
@@ -7070,13 +7070,13 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E9" t="s">
         <v>575</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>576</v>
-      </c>
-      <c r="F9" t="s">
-        <v>577</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B10">
         <v>227376</v>
@@ -7093,21 +7093,21 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" t="s">
         <v>579</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>580</v>
       </c>
-      <c r="F10" t="s">
-        <v>581</v>
-      </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B11">
         <v>227926</v>
@@ -7116,21 +7116,21 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" t="s">
         <v>583</v>
       </c>
-      <c r="E11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>584</v>
-      </c>
-      <c r="G11" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B12">
         <v>227700</v>
@@ -7139,21 +7139,21 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12" t="s">
         <v>587</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>588</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>589</v>
-      </c>
-      <c r="G12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B13">
         <v>227334</v>
@@ -7162,21 +7162,21 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E13" t="s">
         <v>592</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>593</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>594</v>
-      </c>
-      <c r="G13" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B14">
         <v>227553</v>
@@ -7185,13 +7185,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" t="s">
         <v>597</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>598</v>
-      </c>
-      <c r="F14" t="s">
-        <v>599</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B15">
         <v>227541</v>
@@ -7208,21 +7208,21 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15" t="s">
         <v>601</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>602</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>603</v>
-      </c>
-      <c r="G15" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16">
         <v>227380</v>
@@ -7231,21 +7231,21 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
+        <v>605</v>
+      </c>
+      <c r="E16" t="s">
         <v>606</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>607</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>608</v>
-      </c>
-      <c r="G16" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B17">
         <v>227767</v>
@@ -7254,21 +7254,21 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" t="s">
         <v>611</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>612</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>613</v>
-      </c>
-      <c r="G17" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B18">
         <v>227359</v>
@@ -7277,21 +7277,21 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
+        <v>615</v>
+      </c>
+      <c r="E18" t="s">
         <v>616</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>617</v>
       </c>
-      <c r="F18" t="s">
-        <v>618</v>
-      </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B19">
         <v>227340</v>
@@ -7300,21 +7300,21 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" t="s">
         <v>620</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>621</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>622</v>
-      </c>
-      <c r="G19" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B20">
         <v>227729</v>
@@ -7323,21 +7323,21 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
+        <v>625</v>
+      </c>
+      <c r="G20" t="s">
         <v>626</v>
-      </c>
-      <c r="G20" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B21">
         <v>227316</v>
@@ -7346,16 +7346,16 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E21" t="s">
         <v>629</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>630</v>
       </c>
-      <c r="F21" t="s">
-        <v>631</v>
-      </c>
       <c r="G21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B2">
         <v>227246</v>
@@ -7414,21 +7414,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" t="s">
         <v>633</v>
       </c>
-      <c r="E2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>634</v>
-      </c>
-      <c r="G2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B3">
         <v>227308</v>
@@ -7437,21 +7437,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E3" t="s">
         <v>637</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>638</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>639</v>
-      </c>
-      <c r="G3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B4">
         <v>227331</v>
@@ -7460,21 +7460,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
         <v>642</v>
       </c>
-      <c r="E4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" t="s">
-        <v>643</v>
-      </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5">
         <v>227257</v>
@@ -7483,21 +7483,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
         <v>645</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>646</v>
-      </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B6">
         <v>227834</v>
@@ -7506,21 +7506,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F6" t="s">
         <v>648</v>
       </c>
-      <c r="E6" t="s">
-        <v>511</v>
-      </c>
-      <c r="F6" t="s">
-        <v>649</v>
-      </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B7">
         <v>228001</v>
@@ -7529,21 +7529,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
         <v>651</v>
       </c>
-      <c r="E7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>652</v>
-      </c>
-      <c r="G7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B8">
         <v>227833</v>
@@ -7552,21 +7552,21 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8" t="s">
         <v>655</v>
       </c>
-      <c r="E8" t="s">
-        <v>612</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>656</v>
-      </c>
-      <c r="G8" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9">
         <v>227303</v>
@@ -7575,21 +7575,21 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E9" t="s">
         <v>659</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>660</v>
       </c>
-      <c r="F9" t="s">
-        <v>661</v>
-      </c>
       <c r="G9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B10">
         <v>227831</v>
@@ -7598,21 +7598,21 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>662</v>
+      </c>
+      <c r="E10" t="s">
         <v>663</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>664</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>665</v>
-      </c>
-      <c r="G10" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B11">
         <v>227559</v>
@@ -7621,21 +7621,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E11" t="s">
         <v>668</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>669</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>670</v>
-      </c>
-      <c r="G11" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B12">
         <v>227341</v>
@@ -7644,21 +7644,21 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E12" t="s">
         <v>673</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>674</v>
       </c>
-      <c r="F12" t="s">
-        <v>675</v>
-      </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B13">
         <v>227264</v>
@@ -7667,21 +7667,21 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>676</v>
+      </c>
+      <c r="E13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" t="s">
+        <v>651</v>
+      </c>
+      <c r="G13" t="s">
         <v>677</v>
-      </c>
-      <c r="E13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" t="s">
-        <v>652</v>
-      </c>
-      <c r="G13" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B14">
         <v>227290</v>
@@ -7690,13 +7690,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E14" t="s">
         <v>680</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>681</v>
-      </c>
-      <c r="F14" t="s">
-        <v>682</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B15">
         <v>227326</v>
@@ -7713,13 +7713,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>683</v>
+      </c>
+      <c r="E15" t="s">
         <v>684</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>685</v>
-      </c>
-      <c r="F15" t="s">
-        <v>686</v>
       </c>
       <c r="G15" t="s">
         <v>90</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B16">
         <v>227561</v>
@@ -7736,21 +7736,21 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>687</v>
+      </c>
+      <c r="E16" t="s">
         <v>688</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>689</v>
       </c>
-      <c r="F16" t="s">
-        <v>690</v>
-      </c>
       <c r="G16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B17">
         <v>227357</v>
@@ -7759,21 +7759,21 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
       <c r="F17" t="s">
+        <v>692</v>
+      </c>
+      <c r="G17" t="s">
         <v>693</v>
-      </c>
-      <c r="G17" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B18">
         <v>227297</v>
@@ -7782,21 +7782,21 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" t="s">
         <v>696</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>697</v>
       </c>
-      <c r="F18" t="s">
-        <v>698</v>
-      </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B19">
         <v>227329</v>
@@ -7805,21 +7805,21 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>699</v>
+      </c>
+      <c r="E19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" t="s">
         <v>700</v>
       </c>
-      <c r="E19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" t="s">
-        <v>701</v>
-      </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20">
         <v>227828</v>
@@ -7828,21 +7828,21 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>702</v>
+      </c>
+      <c r="E20" t="s">
         <v>703</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>704</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>705</v>
-      </c>
-      <c r="G20" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B21">
         <v>227235</v>
@@ -7851,21 +7851,21 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
+        <v>707</v>
+      </c>
+      <c r="E21" t="s">
         <v>708</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>709</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>710</v>
-      </c>
-      <c r="G21" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B22">
         <v>227791</v>
@@ -7874,21 +7874,21 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E22" t="s">
         <v>713</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>714</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>715</v>
-      </c>
-      <c r="G22" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B23">
         <v>227269</v>
@@ -7897,21 +7897,21 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>717</v>
+      </c>
+      <c r="E23" t="s">
         <v>718</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>719</v>
       </c>
-      <c r="F23" t="s">
-        <v>720</v>
-      </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B24">
         <v>227548</v>
@@ -7920,21 +7920,21 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" t="s">
         <v>722</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>723</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>724</v>
-      </c>
-      <c r="G24" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B25">
         <v>227540</v>
@@ -7943,21 +7943,21 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E25" t="s">
         <v>727</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>728</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>729</v>
-      </c>
-      <c r="G25" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B26">
         <v>227292</v>
@@ -7966,21 +7966,21 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>731</v>
+      </c>
+      <c r="E26" t="s">
         <v>732</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>733</v>
       </c>
-      <c r="F26" t="s">
-        <v>734</v>
-      </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B27">
         <v>227304</v>
@@ -7989,16 +7989,16 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2">
         <v>227363</v>
@@ -8057,21 +8057,21 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" t="s">
         <v>738</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>739</v>
       </c>
-      <c r="F2" t="s">
-        <v>740</v>
-      </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B3">
         <v>227345</v>
@@ -8080,13 +8080,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E3" t="s">
         <v>742</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>743</v>
-      </c>
-      <c r="F3" t="s">
-        <v>744</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4">
         <v>227808</v>
@@ -8103,21 +8103,21 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" t="s">
         <v>746</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>747</v>
       </c>
-      <c r="F4" t="s">
-        <v>748</v>
-      </c>
       <c r="G4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B5">
         <v>227301</v>
@@ -8126,21 +8126,21 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" t="s">
         <v>750</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>751</v>
       </c>
-      <c r="F5" t="s">
-        <v>752</v>
-      </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B6">
         <v>227369</v>
@@ -8149,21 +8149,21 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E6" t="s">
         <v>754</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>755</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>756</v>
-      </c>
-      <c r="G6" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B7">
         <v>227583</v>
@@ -8172,21 +8172,21 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E7" t="s">
         <v>759</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>760</v>
       </c>
-      <c r="F7" t="s">
-        <v>761</v>
-      </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B8">
         <v>227759</v>
@@ -8195,21 +8195,21 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" t="s">
         <v>763</v>
       </c>
-      <c r="E8" t="s">
-        <v>527</v>
-      </c>
-      <c r="F8" t="s">
-        <v>764</v>
-      </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B9">
         <v>227309</v>
@@ -8218,21 +8218,21 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>765</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
         <v>766</v>
       </c>
-      <c r="E9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" t="s">
-        <v>767</v>
-      </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B10">
         <v>227256</v>
@@ -8241,21 +8241,21 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>768</v>
+      </c>
+      <c r="E10" t="s">
         <v>769</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>770</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>771</v>
-      </c>
-      <c r="G10" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B11">
         <v>227233</v>
@@ -8264,21 +8264,21 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12">
         <v>227709</v>
@@ -8287,21 +8287,21 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F12" t="s">
         <v>777</v>
       </c>
-      <c r="E12" t="s">
-        <v>638</v>
-      </c>
-      <c r="F12" t="s">
-        <v>778</v>
-      </c>
       <c r="G12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13">
         <v>228628</v>
@@ -8310,21 +8310,21 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>779</v>
+      </c>
+      <c r="E13" t="s">
         <v>780</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>781</v>
       </c>
-      <c r="F13" t="s">
-        <v>782</v>
-      </c>
       <c r="G13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B14">
         <v>227532</v>
@@ -8333,21 +8333,21 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>783</v>
+      </c>
+      <c r="E14" t="s">
+        <v>738</v>
+      </c>
+      <c r="F14" t="s">
         <v>784</v>
       </c>
-      <c r="E14" t="s">
-        <v>739</v>
-      </c>
-      <c r="F14" t="s">
-        <v>785</v>
-      </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B15">
         <v>227368</v>
@@ -8356,21 +8356,21 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" t="s">
         <v>787</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>788</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>789</v>
-      </c>
-      <c r="G15" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B16">
         <v>227596</v>
@@ -8379,21 +8379,21 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E16" t="s">
+        <v>592</v>
+      </c>
+      <c r="F16" t="s">
         <v>593</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>594</v>
-      </c>
-      <c r="G16" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B17">
         <v>227406</v>
@@ -8402,21 +8402,21 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E17" t="s">
+        <v>659</v>
+      </c>
+      <c r="F17" t="s">
         <v>794</v>
       </c>
-      <c r="E17" t="s">
-        <v>660</v>
-      </c>
-      <c r="F17" t="s">
-        <v>795</v>
-      </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B18">
         <v>227531</v>
@@ -8425,21 +8425,21 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>796</v>
+      </c>
+      <c r="E18" t="s">
         <v>797</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>798</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>799</v>
-      </c>
-      <c r="G18" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B19">
         <v>227546</v>
@@ -8448,21 +8448,21 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" t="s">
         <v>802</v>
       </c>
-      <c r="E19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" t="s">
-        <v>803</v>
-      </c>
       <c r="G19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20">
         <v>227699</v>
@@ -8471,21 +8471,21 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" t="s">
         <v>805</v>
       </c>
-      <c r="E20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" t="s">
-        <v>806</v>
-      </c>
       <c r="G20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B21">
         <v>227379</v>
@@ -8494,21 +8494,21 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>807</v>
+      </c>
+      <c r="E21" t="s">
         <v>808</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>809</v>
       </c>
-      <c r="F21" t="s">
-        <v>810</v>
-      </c>
       <c r="G21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B22">
         <v>228006</v>
@@ -8517,21 +8517,21 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" t="s">
         <v>812</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>813</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>814</v>
-      </c>
-      <c r="G22" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B23">
         <v>229417</v>
@@ -8540,21 +8540,21 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>816</v>
+      </c>
+      <c r="E23" t="s">
         <v>817</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>818</v>
       </c>
-      <c r="F23" t="s">
-        <v>819</v>
-      </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B24">
         <v>229618</v>
@@ -8563,21 +8563,21 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>820</v>
+      </c>
+      <c r="E24" t="s">
         <v>821</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>822</v>
       </c>
-      <c r="F24" t="s">
-        <v>823</v>
-      </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B25">
         <v>227268</v>
@@ -8586,21 +8586,21 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>824</v>
+      </c>
+      <c r="E25" t="s">
         <v>825</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>826</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>827</v>
-      </c>
-      <c r="G25" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B26">
         <v>227311</v>
@@ -8609,16 +8609,16 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>829</v>
+      </c>
+      <c r="E26" t="s">
         <v>830</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>831</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>832</v>
-      </c>
-      <c r="G26" t="s">
-        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B2">
         <v>227255</v>
@@ -8677,21 +8677,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E2" t="s">
         <v>835</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>836</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>837</v>
-      </c>
-      <c r="G2" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B3">
         <v>227372</v>
@@ -8700,21 +8700,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E3" t="s">
         <v>840</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G3" t="s">
         <v>841</v>
-      </c>
-      <c r="F3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B4">
         <v>227761</v>
@@ -8723,21 +8723,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E4" t="s">
         <v>844</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>845</v>
       </c>
-      <c r="F4" t="s">
-        <v>846</v>
-      </c>
       <c r="G4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B5">
         <v>227332</v>
@@ -8746,21 +8746,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E5" t="s">
         <v>848</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>849</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>850</v>
-      </c>
-      <c r="G5" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B6">
         <v>227838</v>
@@ -8769,21 +8769,21 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>852</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
         <v>853</v>
       </c>
-      <c r="E6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F6" t="s">
-        <v>854</v>
-      </c>
       <c r="G6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B7">
         <v>227837</v>
@@ -8792,21 +8792,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>855</v>
+      </c>
+      <c r="E7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" t="s">
         <v>856</v>
       </c>
-      <c r="E7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" t="s">
-        <v>857</v>
-      </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B8">
         <v>227348</v>
@@ -8815,21 +8815,21 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E8" t="s">
         <v>859</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>860</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>861</v>
-      </c>
-      <c r="G8" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B9">
         <v>227804</v>
@@ -8838,13 +8838,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F9" t="s">
         <v>864</v>
-      </c>
-      <c r="E9" t="s">
-        <v>527</v>
-      </c>
-      <c r="F9" t="s">
-        <v>865</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B10">
         <v>227580</v>
@@ -8861,13 +8861,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E10" t="s">
         <v>867</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>868</v>
-      </c>
-      <c r="F10" t="s">
-        <v>869</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B11">
         <v>227249</v>
@@ -8884,21 +8884,21 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>870</v>
+      </c>
+      <c r="E11" t="s">
         <v>871</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>872</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>873</v>
-      </c>
-      <c r="G11" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B12">
         <v>227550</v>
@@ -8907,21 +8907,21 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>875</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
         <v>876</v>
       </c>
-      <c r="E12" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" t="s">
-        <v>877</v>
-      </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B13">
         <v>227336</v>
@@ -8930,21 +8930,21 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>878</v>
+      </c>
+      <c r="E13" t="s">
         <v>879</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>880</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>881</v>
-      </c>
-      <c r="G13" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B14">
         <v>227240</v>
@@ -8953,21 +8953,21 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B15">
         <v>231568</v>
@@ -8976,21 +8976,21 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>886</v>
+      </c>
+      <c r="E15" t="s">
         <v>887</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>888</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>889</v>
-      </c>
-      <c r="G15" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B16">
         <v>227786</v>
@@ -8999,13 +8999,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>891</v>
+      </c>
+      <c r="E16" t="s">
         <v>892</v>
       </c>
-      <c r="E16" t="s">
-        <v>893</v>
-      </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G16" t="s">
         <v>90</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B17">
         <v>227587</v>
@@ -9022,21 +9022,21 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>894</v>
+      </c>
+      <c r="E17" t="s">
+        <v>553</v>
+      </c>
+      <c r="F17" t="s">
         <v>895</v>
       </c>
-      <c r="E17" t="s">
-        <v>554</v>
-      </c>
-      <c r="F17" t="s">
-        <v>896</v>
-      </c>
       <c r="G17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B18">
         <v>227704</v>
@@ -9045,21 +9045,21 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>897</v>
+      </c>
+      <c r="E18" t="s">
         <v>898</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>899</v>
       </c>
-      <c r="F18" t="s">
-        <v>900</v>
-      </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B19">
         <v>227594</v>
@@ -9068,21 +9068,21 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B20">
         <v>227405</v>
@@ -9091,21 +9091,21 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>903</v>
+      </c>
+      <c r="E20" t="s">
+        <v>611</v>
+      </c>
+      <c r="F20" t="s">
         <v>904</v>
       </c>
-      <c r="E20" t="s">
-        <v>612</v>
-      </c>
-      <c r="F20" t="s">
-        <v>905</v>
-      </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B21">
         <v>227547</v>
@@ -9114,21 +9114,21 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E21" t="s">
         <v>907</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>908</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>909</v>
-      </c>
-      <c r="G21" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B22">
         <v>227567</v>
@@ -9137,21 +9137,21 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>911</v>
+      </c>
+      <c r="E22" t="s">
+        <v>754</v>
+      </c>
+      <c r="F22" t="s">
+        <v>755</v>
+      </c>
+      <c r="G22" t="s">
         <v>912</v>
-      </c>
-      <c r="E22" t="s">
-        <v>755</v>
-      </c>
-      <c r="F22" t="s">
-        <v>756</v>
-      </c>
-      <c r="G22" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B23">
         <v>227599</v>
@@ -9160,21 +9160,21 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>914</v>
+      </c>
+      <c r="E23" t="s">
         <v>915</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>916</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>917</v>
-      </c>
-      <c r="G23" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B24">
         <v>227534</v>
@@ -9183,21 +9183,21 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
+        <v>919</v>
+      </c>
+      <c r="E24" t="s">
+        <v>787</v>
+      </c>
+      <c r="F24" t="s">
         <v>920</v>
       </c>
-      <c r="E24" t="s">
-        <v>788</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>921</v>
-      </c>
-      <c r="G24" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B25">
         <v>229206</v>
@@ -9206,21 +9206,21 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>923</v>
+      </c>
+      <c r="E25" t="s">
+        <v>808</v>
+      </c>
+      <c r="F25" t="s">
         <v>924</v>
       </c>
-      <c r="E25" t="s">
-        <v>809</v>
-      </c>
-      <c r="F25" t="s">
-        <v>925</v>
-      </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B26">
         <v>227319</v>
@@ -9229,21 +9229,21 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
+        <v>926</v>
+      </c>
+      <c r="E26" t="s">
+        <v>659</v>
+      </c>
+      <c r="F26" t="s">
         <v>927</v>
       </c>
-      <c r="E26" t="s">
-        <v>660</v>
-      </c>
-      <c r="F26" t="s">
-        <v>928</v>
-      </c>
       <c r="G26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B27">
         <v>227794</v>
@@ -9252,13 +9252,13 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
+        <v>929</v>
+      </c>
+      <c r="E27" t="s">
         <v>930</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>931</v>
-      </c>
-      <c r="F27" t="s">
-        <v>932</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -9266,7 +9266,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B28">
         <v>227591</v>
@@ -9275,21 +9275,21 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
+        <v>933</v>
+      </c>
+      <c r="E28" t="s">
+        <v>871</v>
+      </c>
+      <c r="F28" t="s">
         <v>934</v>
       </c>
-      <c r="E28" t="s">
-        <v>872</v>
-      </c>
-      <c r="F28" t="s">
-        <v>935</v>
-      </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B29">
         <v>227382</v>
@@ -9298,21 +9298,21 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
+        <v>936</v>
+      </c>
+      <c r="E29" t="s">
         <v>937</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>938</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>939</v>
-      </c>
-      <c r="G29" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B30">
         <v>227349</v>
@@ -9321,21 +9321,21 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>941</v>
+      </c>
+      <c r="E30" t="s">
         <v>942</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>943</v>
       </c>
-      <c r="F30" t="s">
-        <v>944</v>
-      </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B31">
         <v>227263</v>
@@ -9344,21 +9344,21 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>945</v>
+      </c>
+      <c r="E31" t="s">
         <v>946</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>947</v>
       </c>
-      <c r="F31" t="s">
-        <v>948</v>
-      </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B32">
         <v>227322</v>
@@ -9367,21 +9367,21 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>949</v>
+      </c>
+      <c r="E32" t="s">
         <v>950</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>951</v>
       </c>
-      <c r="F32" t="s">
-        <v>952</v>
-      </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B33">
         <v>227333</v>
@@ -9390,21 +9390,21 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
+        <v>953</v>
+      </c>
+      <c r="E33" t="s">
         <v>954</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>955</v>
       </c>
-      <c r="F33" t="s">
-        <v>956</v>
-      </c>
       <c r="G33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B34">
         <v>227377</v>
@@ -9413,21 +9413,21 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B35">
         <v>227605</v>
@@ -9436,21 +9436,21 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
+        <v>960</v>
+      </c>
+      <c r="E35" t="s">
+        <v>844</v>
+      </c>
+      <c r="F35" t="s">
         <v>961</v>
       </c>
-      <c r="E35" t="s">
-        <v>845</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>962</v>
-      </c>
-      <c r="G35" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B36">
         <v>228096</v>
@@ -9459,21 +9459,21 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
+        <v>964</v>
+      </c>
+      <c r="E36" t="s">
         <v>965</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>966</v>
       </c>
-      <c r="F36" t="s">
-        <v>967</v>
-      </c>
       <c r="G36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B37">
         <v>227530</v>
@@ -9482,16 +9482,16 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
+        <v>968</v>
+      </c>
+      <c r="E37" t="s">
         <v>969</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>970</v>
       </c>
-      <c r="F37" t="s">
-        <v>971</v>
-      </c>
       <c r="G37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1026">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:10</t>
+    <t xml:space="preserve">25/05/2024 16:40</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:15</t>
+    <t xml:space="preserve">25/05/2024 16:45</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:20</t>
+    <t xml:space="preserve">25/05/2024 16:50</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -103,13 +103,16 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
+    <t xml:space="preserve">25/05/2024 16:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Detectors</t>
+  </si>
+  <si>
     <t xml:space="preserve">30/05/2024 13:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas Detectors</t>
   </si>
   <si>
     <t xml:space="preserve">36247</t>
@@ -3228,10 +3231,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3358,7 +3361,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>24</v>
@@ -3375,35 +3378,35 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3417,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,10 +3431,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3456,7 +3459,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3466,30 +3469,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3498,21 +3501,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3521,21 +3524,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3544,21 +3547,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3567,21 +3570,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3590,21 +3593,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3613,21 +3616,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3636,21 +3639,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3659,21 +3662,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3682,21 +3685,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3705,21 +3708,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3728,21 +3731,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3751,21 +3754,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3774,21 +3777,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3797,16 +3800,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3834,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3841,30 +3844,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3873,21 +3876,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3896,21 +3899,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3919,21 +3922,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3942,21 +3945,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3965,21 +3968,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3988,21 +3991,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4011,21 +4014,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4034,21 +4037,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4057,21 +4060,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4080,21 +4083,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4103,21 +4106,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4126,21 +4129,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4149,21 +4152,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4172,21 +4175,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4195,21 +4198,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4218,21 +4221,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4241,21 +4244,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4264,21 +4267,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4287,21 +4290,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4310,21 +4313,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4333,21 +4336,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4356,16 +4359,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4390,7 +4393,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4400,30 +4403,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4432,21 +4435,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4455,21 +4458,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4478,21 +4481,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4501,21 +4504,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4524,21 +4527,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4547,21 +4550,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4570,21 +4573,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4593,21 +4596,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4616,21 +4619,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4639,21 +4642,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4662,21 +4665,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4685,21 +4688,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4708,21 +4711,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4731,21 +4734,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4754,21 +4757,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4777,21 +4780,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4800,21 +4803,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4823,21 +4826,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4846,21 +4849,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4869,21 +4872,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4892,21 +4895,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4915,21 +4918,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4938,16 +4941,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4972,7 +4975,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4982,30 +4985,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5014,21 +5017,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5037,21 +5040,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5060,21 +5063,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5083,21 +5086,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5106,21 +5109,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5129,21 +5132,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5152,21 +5155,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5175,21 +5178,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5198,21 +5201,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5221,21 +5224,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5244,21 +5247,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5267,21 +5270,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5290,21 +5293,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5313,21 +5316,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5336,21 +5339,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5359,21 +5362,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5382,21 +5385,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5405,21 +5408,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5428,21 +5431,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5451,21 +5454,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5474,21 +5477,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5497,21 +5500,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5520,21 +5523,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5543,21 +5546,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5566,21 +5569,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5589,21 +5592,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5612,21 +5615,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5635,21 +5638,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5658,21 +5661,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5681,21 +5684,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5704,21 +5707,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5727,21 +5730,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5750,21 +5753,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5773,21 +5776,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5796,21 +5799,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5819,16 +5822,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5853,7 +5856,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5863,30 +5866,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5895,21 +5898,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5918,21 +5921,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5941,21 +5944,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5964,21 +5967,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5987,21 +5990,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6010,21 +6013,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6033,21 +6036,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6056,21 +6059,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6079,21 +6082,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6102,21 +6105,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6125,21 +6128,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6148,21 +6151,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6171,21 +6174,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6194,21 +6197,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6217,21 +6220,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6240,21 +6243,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6263,21 +6266,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6286,21 +6289,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6309,21 +6312,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6332,21 +6335,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6355,21 +6358,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6378,21 +6381,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6401,21 +6404,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6424,21 +6427,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6447,21 +6450,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6470,21 +6473,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6493,21 +6496,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6516,21 +6519,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6539,21 +6542,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6562,21 +6565,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6585,21 +6588,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6608,16 +6611,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6642,7 +6645,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6652,30 +6655,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6684,21 +6687,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6707,21 +6710,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6730,21 +6733,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6753,21 +6756,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6776,21 +6779,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6799,21 +6802,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6822,21 +6825,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6845,21 +6848,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6868,21 +6871,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6891,21 +6894,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6914,21 +6917,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6937,21 +6940,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6960,21 +6963,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6983,21 +6986,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7006,21 +7009,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7029,21 +7032,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7052,21 +7055,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7075,21 +7078,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7098,21 +7101,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7121,16 +7124,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7155,7 +7158,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7165,30 +7168,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7197,21 +7200,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7220,21 +7223,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7243,21 +7246,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7266,21 +7269,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7289,21 +7292,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7312,21 +7315,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7335,21 +7338,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7358,21 +7361,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7381,21 +7384,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7404,21 +7407,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7427,21 +7430,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7450,21 +7453,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7473,21 +7476,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7496,21 +7499,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7519,21 +7522,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7542,21 +7545,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7565,21 +7568,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7588,21 +7591,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7611,21 +7614,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7634,21 +7637,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7657,21 +7660,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7680,21 +7683,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7703,21 +7706,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7726,21 +7729,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7749,21 +7752,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7772,16 +7775,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7806,7 +7809,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7816,30 +7819,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7848,21 +7851,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7871,21 +7874,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7894,21 +7897,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7917,21 +7920,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7940,21 +7943,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7963,21 +7966,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7986,21 +7989,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8009,21 +8012,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8032,21 +8035,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8055,21 +8058,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8078,21 +8081,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8101,21 +8104,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8124,21 +8127,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8147,21 +8150,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8170,21 +8173,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8193,21 +8196,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8216,21 +8219,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8239,21 +8242,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8262,21 +8265,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8285,21 +8288,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8308,21 +8311,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8331,21 +8334,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8354,21 +8357,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8377,21 +8380,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8400,16 +8403,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -8434,7 +8437,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8444,30 +8447,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8476,21 +8479,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8499,21 +8502,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8522,21 +8525,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8545,21 +8548,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8568,21 +8571,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8591,21 +8594,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8614,21 +8617,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8637,21 +8640,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8660,21 +8663,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8683,21 +8686,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8706,21 +8709,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8729,21 +8732,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8752,21 +8755,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8775,21 +8778,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8798,21 +8801,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8821,21 +8824,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8844,21 +8847,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8867,21 +8870,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8890,21 +8893,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8913,21 +8916,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8936,21 +8939,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8959,21 +8962,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8982,21 +8985,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9005,21 +9008,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9028,21 +9031,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9051,21 +9054,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9074,21 +9077,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9097,21 +9100,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9120,21 +9123,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9143,21 +9146,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9166,21 +9169,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9189,21 +9192,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9212,21 +9215,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9235,21 +9238,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9258,21 +9261,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9281,16 +9284,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:40</t>
+    <t xml:space="preserve">25/05/2024 17:20</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -61,16 +61,13 @@
     <t xml:space="preserve">Applications to Industrial and Societal Challenges</t>
   </si>
   <si>
-    <t xml:space="preserve">27/05/2024 13:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">36239</t>
   </si>
   <si>
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:45</t>
+    <t xml:space="preserve">25/05/2024 17:25</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -85,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:50</t>
+    <t xml:space="preserve">25/05/2024 17:30</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -94,16 +91,13 @@
     <t xml:space="preserve">Calorimetry</t>
   </si>
   <si>
-    <t xml:space="preserve">29/05/2024 21:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">36245</t>
   </si>
   <si>
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 16:55</t>
+    <t xml:space="preserve">25/05/2024 17:35</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,22 +106,22 @@
     <t xml:space="preserve">Gas Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">30/05/2024 13:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">36247</t>
   </si>
   <si>
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
+    <t xml:space="preserve">25/05/2024 17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Temperature, Quantum and Emerging Technologies</t>
+  </si>
+  <si>
     <t xml:space="preserve">31/05/2024 13:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low Temperature, Quantum and Emerging Technologies</t>
   </si>
   <si>
     <t xml:space="preserve">31/05/2024 21:00</t>
@@ -3231,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3280,21 +3274,21 @@
         <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,122 +3313,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3456,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3469,30 +3463,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3501,21 +3495,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>979</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3524,21 +3518,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3547,21 +3541,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3570,21 +3564,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3593,21 +3587,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3616,21 +3610,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3639,21 +3633,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>1000</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3662,21 +3656,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3685,21 +3679,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3708,21 +3702,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1012</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3731,21 +3725,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3754,21 +3748,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3777,21 +3771,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3800,16 +3794,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -3831,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3844,30 +3838,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3876,21 +3870,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3899,21 +3893,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3922,21 +3916,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3945,21 +3939,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3968,21 +3962,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3991,21 +3985,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4014,21 +4008,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4037,21 +4031,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4060,21 +4054,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4083,21 +4077,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4106,21 +4100,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4129,21 +4123,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4152,21 +4146,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4175,21 +4169,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4198,21 +4192,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4221,21 +4215,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4244,21 +4238,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4267,21 +4261,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4290,21 +4284,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4313,21 +4307,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4336,21 +4330,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4359,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4390,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4403,30 +4397,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4435,21 +4429,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4458,21 +4452,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4481,21 +4475,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4504,21 +4498,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4527,21 +4521,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4550,21 +4544,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4573,21 +4567,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4596,21 +4590,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4619,21 +4613,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4642,21 +4636,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4665,21 +4659,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4688,21 +4682,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4711,21 +4705,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4734,21 +4728,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4757,21 +4751,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4780,21 +4774,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4803,21 +4797,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4826,21 +4820,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4849,21 +4843,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4872,21 +4866,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4895,21 +4889,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4918,21 +4912,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4941,16 +4935,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4972,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4985,30 +4979,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5017,21 +5011,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5040,21 +5034,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5063,21 +5057,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5086,21 +5080,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5109,21 +5103,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5132,21 +5126,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5155,21 +5149,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5178,21 +5172,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5201,21 +5195,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5224,21 +5218,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5247,21 +5241,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>299</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5270,21 +5264,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5293,21 +5287,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5316,21 +5310,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5339,21 +5333,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5362,21 +5356,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5385,21 +5379,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5408,21 +5402,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5431,21 +5425,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5454,21 +5448,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5477,21 +5471,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5500,21 +5494,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5523,21 +5517,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5546,21 +5540,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5569,21 +5563,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5592,21 +5586,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5615,21 +5609,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5638,21 +5632,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>377</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5661,21 +5655,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5684,21 +5678,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5707,21 +5701,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5730,21 +5724,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5753,21 +5747,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5776,21 +5770,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5799,21 +5793,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5822,16 +5816,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5853,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5866,30 +5860,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5898,21 +5892,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5921,21 +5915,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5944,21 +5938,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5967,21 +5961,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>430</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5990,21 +5984,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>434</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6013,21 +6007,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6036,21 +6030,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6059,21 +6053,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6082,21 +6076,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6105,21 +6099,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6128,21 +6122,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6151,21 +6145,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6174,21 +6168,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6197,21 +6191,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6220,21 +6214,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6243,21 +6237,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6266,21 +6260,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6289,21 +6283,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6312,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>494</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6335,21 +6329,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6358,21 +6352,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6381,21 +6375,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6404,21 +6398,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6427,21 +6421,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6450,21 +6444,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6473,21 +6467,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6496,21 +6490,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>525</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6519,21 +6513,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6542,21 +6536,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6565,21 +6559,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6588,21 +6582,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>540</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6611,16 +6605,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6642,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6655,30 +6649,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6687,21 +6681,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>551</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6710,21 +6704,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6733,21 +6727,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6756,21 +6750,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6779,21 +6773,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6802,21 +6796,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6825,21 +6819,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6848,21 +6842,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6871,21 +6865,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>586</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6894,21 +6888,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6917,21 +6911,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6940,21 +6934,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6963,21 +6957,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>604</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6986,21 +6980,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7009,21 +7003,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7032,21 +7026,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7055,21 +7049,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>623</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7078,21 +7072,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7101,21 +7095,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7124,16 +7118,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>636</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7155,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7168,30 +7162,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7200,21 +7194,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7223,21 +7217,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7246,21 +7240,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7269,21 +7263,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7292,21 +7286,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7315,21 +7309,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7338,21 +7332,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7361,21 +7355,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>666</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7384,21 +7378,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7407,21 +7401,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>674</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7430,21 +7424,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>680</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7453,21 +7447,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7476,21 +7470,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>687</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7499,21 +7493,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>691</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7522,21 +7516,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>695</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7545,21 +7539,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7568,21 +7562,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>703</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7591,21 +7585,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7614,21 +7608,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7637,21 +7631,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7660,21 +7654,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7683,21 +7677,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7706,21 +7700,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>728</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7729,21 +7723,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7752,21 +7746,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7775,16 +7769,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7806,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7819,30 +7813,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7851,21 +7845,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>745</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7874,21 +7868,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>749</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7897,21 +7891,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>753</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7920,21 +7914,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>757</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7943,21 +7937,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7966,21 +7960,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>766</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7989,21 +7983,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8012,21 +8006,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8035,21 +8029,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8058,21 +8052,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8081,21 +8075,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8104,21 +8098,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>787</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8127,21 +8121,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8150,21 +8144,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8173,21 +8167,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8196,21 +8190,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8219,21 +8213,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8242,21 +8236,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8265,21 +8259,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8288,21 +8282,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>815</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8311,21 +8305,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8334,21 +8328,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>824</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8357,21 +8351,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>828</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8380,21 +8374,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8403,16 +8397,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -8434,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8447,30 +8441,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8479,21 +8473,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>841</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8502,21 +8496,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8525,21 +8519,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>851</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8548,21 +8542,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8571,21 +8565,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8594,21 +8588,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8617,21 +8611,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>865</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8640,21 +8634,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8663,21 +8657,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>874</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8686,21 +8680,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8709,21 +8703,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8732,21 +8726,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8755,21 +8749,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8778,21 +8772,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8801,21 +8795,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8824,21 +8818,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8847,21 +8841,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>905</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8870,21 +8864,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8893,21 +8887,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8916,21 +8910,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8939,21 +8933,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8962,21 +8956,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8985,21 +8979,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>925</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9008,21 +9002,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9031,21 +9025,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9054,21 +9048,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>937</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9077,21 +9071,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9100,21 +9094,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9123,21 +9117,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>949</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9146,21 +9140,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>953</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9169,21 +9163,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>957</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9192,21 +9186,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>961</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9215,21 +9209,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9238,21 +9232,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9261,21 +9255,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>972</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9284,16 +9278,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>976</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 17:40</t>
+    <t xml:space="preserve">25/05/2024 18:40</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5847,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1025">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 17:20</t>
+    <t xml:space="preserve">25/05/2024 19:00</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,10 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 17:25</t>
+    <t xml:space="preserve">25/05/2024 19:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024 19:15</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +85,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 17:30</t>
+    <t xml:space="preserve">25/05/2024 19:20</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +100,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 17:35</t>
+    <t xml:space="preserve">25/05/2024 19:25</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +115,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 18:40</t>
+    <t xml:space="preserve">25/05/2024 19:30</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3228,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3285,13 +3288,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
@@ -3299,10 +3302,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,122 +3316,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3456,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3463,30 +3466,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3495,21 +3498,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3518,21 +3521,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3541,21 +3544,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3564,21 +3567,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3587,21 +3590,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3610,21 +3613,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3633,21 +3636,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3656,21 +3659,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3679,21 +3682,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3702,21 +3705,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3725,21 +3728,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3748,21 +3751,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3771,21 +3774,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3794,16 +3797,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3831,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3838,30 +3841,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3870,21 +3873,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3893,21 +3896,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3916,21 +3919,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3939,21 +3942,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3962,21 +3965,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3985,21 +3988,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4008,21 +4011,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4031,21 +4034,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4054,21 +4057,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4077,21 +4080,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4100,21 +4103,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4123,21 +4126,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4146,21 +4149,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4169,21 +4172,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4192,21 +4195,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4215,21 +4218,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4238,21 +4241,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4261,21 +4264,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4284,21 +4287,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4307,21 +4310,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4330,21 +4333,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4353,16 +4356,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4390,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4397,30 +4400,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4429,21 +4432,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4452,21 +4455,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4475,21 +4478,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4498,21 +4501,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4521,21 +4524,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4544,21 +4547,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4567,21 +4570,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4590,21 +4593,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4613,21 +4616,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4636,21 +4639,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4659,21 +4662,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4682,21 +4685,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4705,21 +4708,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4728,21 +4731,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4751,21 +4754,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4774,21 +4777,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4797,21 +4800,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4820,21 +4823,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4843,21 +4846,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4866,21 +4869,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4889,21 +4892,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4912,21 +4915,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4935,16 +4938,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +4972,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4979,30 +4982,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5011,21 +5014,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5034,21 +5037,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5057,21 +5060,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5080,21 +5083,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5103,21 +5106,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5126,21 +5129,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5149,21 +5152,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5172,21 +5175,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5195,21 +5198,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5218,21 +5221,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5241,21 +5244,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5264,21 +5267,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5287,21 +5290,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5310,21 +5313,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5333,21 +5336,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5356,21 +5359,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5379,21 +5382,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5402,21 +5405,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5425,21 +5428,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5448,21 +5451,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5471,21 +5474,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5494,21 +5497,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5517,21 +5520,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5540,21 +5543,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5563,21 +5566,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5586,21 +5589,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5609,21 +5612,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5632,21 +5635,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5655,21 +5658,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5678,21 +5681,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5701,21 +5704,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5724,21 +5727,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5747,21 +5750,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5770,21 +5773,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5793,21 +5796,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5816,16 +5819,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5850,7 +5853,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5860,30 +5863,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5892,21 +5895,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5915,21 +5918,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5938,21 +5941,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5961,21 +5964,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5984,21 +5987,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6007,21 +6010,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6030,21 +6033,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6053,21 +6056,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6076,21 +6079,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6099,21 +6102,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6122,21 +6125,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6145,21 +6148,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6168,21 +6171,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6191,21 +6194,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6214,21 +6217,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6237,21 +6240,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6260,21 +6263,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6283,21 +6286,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6306,21 +6309,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6329,21 +6332,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6352,21 +6355,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6375,21 +6378,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6398,21 +6401,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6421,21 +6424,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6444,21 +6447,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6467,21 +6470,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6490,21 +6493,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6513,21 +6516,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6536,21 +6539,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6559,21 +6562,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6582,21 +6585,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6605,16 +6608,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6642,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6649,30 +6652,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6681,21 +6684,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6704,21 +6707,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6727,21 +6730,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6750,21 +6753,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6773,21 +6776,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6796,21 +6799,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6819,21 +6822,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6842,21 +6845,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6865,21 +6868,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6888,21 +6891,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6911,21 +6914,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6934,21 +6937,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6957,21 +6960,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6980,21 +6983,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7003,21 +7006,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7026,21 +7029,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7049,21 +7052,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7072,21 +7075,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7095,21 +7098,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7118,16 +7121,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7152,7 +7155,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7162,30 +7165,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7194,21 +7197,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7217,21 +7220,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7240,21 +7243,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7263,21 +7266,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7286,21 +7289,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7309,21 +7312,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7332,21 +7335,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7355,21 +7358,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7378,21 +7381,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7401,21 +7404,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7424,21 +7427,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7447,21 +7450,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7470,21 +7473,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7493,21 +7496,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7516,21 +7519,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7539,21 +7542,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7562,21 +7565,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7585,21 +7588,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7608,21 +7611,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7631,21 +7634,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7654,21 +7657,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7677,21 +7680,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7700,21 +7703,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7723,21 +7726,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7746,21 +7749,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7769,16 +7772,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7803,7 +7806,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7813,30 +7816,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7845,21 +7848,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7868,21 +7871,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7891,21 +7894,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7914,21 +7917,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7937,21 +7940,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7960,21 +7963,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7983,21 +7986,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8006,21 +8009,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8029,21 +8032,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8052,21 +8055,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8075,21 +8078,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8098,21 +8101,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8121,21 +8124,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8144,21 +8147,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8167,21 +8170,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8190,21 +8193,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8213,21 +8216,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8236,21 +8239,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8259,21 +8262,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8282,21 +8285,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8305,21 +8308,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8328,21 +8331,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8351,21 +8354,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8374,21 +8377,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8397,16 +8400,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8431,7 +8434,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8441,30 +8444,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8473,21 +8476,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8496,21 +8499,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8519,21 +8522,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8542,21 +8545,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8565,21 +8568,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8588,21 +8591,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8611,21 +8614,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8634,21 +8637,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8657,21 +8660,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8680,21 +8683,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8703,21 +8706,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8726,21 +8729,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8749,21 +8752,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8772,21 +8775,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8795,21 +8798,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8818,21 +8821,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8841,21 +8844,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8864,21 +8867,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8887,21 +8890,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8910,21 +8913,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8933,21 +8936,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8956,21 +8959,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8979,21 +8982,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9002,21 +9005,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9025,21 +9028,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9048,21 +9051,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9071,21 +9074,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9094,21 +9097,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9117,21 +9120,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9140,21 +9143,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9163,21 +9166,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9186,21 +9189,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9209,21 +9212,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9232,21 +9235,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9255,21 +9258,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9278,16 +9281,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Integration and Detector Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/2024 19:10</t>
   </si>
   <si>
     <t xml:space="preserve">25/05/2024 19:15</t>
@@ -3228,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3288,10 +3285,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,122 +3313,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3456,7 +3453,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3466,30 +3463,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3498,21 +3495,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>979</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3521,21 +3518,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>983</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3544,21 +3541,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3567,21 +3564,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>990</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3590,21 +3587,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>993</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3613,21 +3610,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>995</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>996</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3636,21 +3633,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>1000</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3659,21 +3656,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>1004</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3682,21 +3679,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>1007</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3705,21 +3702,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>1009</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>1011</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3728,21 +3725,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3751,21 +3748,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>1016</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3774,21 +3771,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>1019</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3797,16 +3794,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3828,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3841,30 +3838,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3873,21 +3870,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3896,21 +3893,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3919,21 +3916,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3942,21 +3939,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3965,21 +3962,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3988,21 +3985,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4011,21 +4008,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4034,21 +4031,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4057,21 +4054,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4080,21 +4077,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4103,21 +4100,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4126,21 +4123,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4149,21 +4146,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4172,21 +4169,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4195,21 +4192,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4218,21 +4215,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4241,21 +4238,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4264,21 +4261,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4287,21 +4284,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4310,21 +4307,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4333,21 +4330,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4356,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4390,7 +4387,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4400,30 +4397,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4432,21 +4429,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4455,21 +4452,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4478,21 +4475,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4501,21 +4498,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4524,21 +4521,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4547,21 +4544,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4570,21 +4567,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4593,21 +4590,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4616,21 +4613,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4639,21 +4636,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4662,21 +4659,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4685,21 +4682,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4708,21 +4705,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4731,21 +4728,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4754,21 +4751,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4777,21 +4774,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4800,21 +4797,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4823,21 +4820,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4846,21 +4843,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4869,21 +4866,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4892,21 +4889,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4915,21 +4912,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>245</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4938,16 +4935,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4972,7 +4969,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4982,30 +4979,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5014,21 +5011,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5037,21 +5034,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5060,21 +5057,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5083,21 +5080,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5106,21 +5103,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5129,21 +5126,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5152,21 +5149,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5175,21 +5172,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5198,21 +5195,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5221,21 +5218,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5244,21 +5241,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5267,21 +5264,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5290,21 +5287,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5313,21 +5310,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5336,21 +5333,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5359,21 +5356,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5382,21 +5379,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>324</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5405,21 +5402,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5428,21 +5425,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5451,21 +5448,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5474,21 +5471,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5497,21 +5494,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5520,21 +5517,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5543,21 +5540,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5566,21 +5563,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5589,21 +5586,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5612,21 +5609,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5635,21 +5632,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>376</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5658,21 +5655,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5681,21 +5678,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5704,21 +5701,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>390</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5727,21 +5724,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>394</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5750,21 +5747,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>398</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5773,21 +5770,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5796,21 +5793,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5819,16 +5816,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5853,7 +5850,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5863,30 +5860,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5895,21 +5892,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5918,21 +5915,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5941,21 +5938,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5964,21 +5961,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>429</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5987,21 +5984,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>433</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6010,21 +6007,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6033,21 +6030,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>441</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6056,21 +6053,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6079,21 +6076,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6102,21 +6099,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6125,21 +6122,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6148,21 +6145,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>464</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6171,21 +6168,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6194,21 +6191,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6217,21 +6214,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>464</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6240,21 +6237,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>479</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6263,21 +6260,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6286,21 +6283,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6309,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>493</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6332,21 +6329,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6355,21 +6352,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>502</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6378,21 +6375,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6401,21 +6398,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6424,21 +6421,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>512</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6447,21 +6444,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6470,21 +6467,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>520</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6493,21 +6490,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6516,21 +6513,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6539,21 +6536,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6562,21 +6559,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>536</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6585,21 +6582,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>540</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6608,16 +6605,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6642,7 +6639,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6652,30 +6649,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6684,21 +6681,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>550</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6707,21 +6704,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6730,21 +6727,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>558</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6753,21 +6750,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6776,21 +6773,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>567</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6799,21 +6796,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6822,21 +6819,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6845,21 +6842,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>581</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6868,21 +6865,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6891,21 +6888,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6914,21 +6911,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6937,21 +6934,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6960,21 +6957,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>603</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6983,21 +6980,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7006,21 +7003,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7029,21 +7026,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7052,21 +7049,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>622</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7075,21 +7072,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7098,21 +7095,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7121,16 +7118,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7155,7 +7152,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7165,30 +7162,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7197,21 +7194,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7220,21 +7217,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7243,21 +7240,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>647</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7266,21 +7263,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>650</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7289,21 +7286,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>653</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7312,21 +7309,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7335,21 +7332,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7358,21 +7355,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>665</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7381,21 +7378,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7404,21 +7401,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>674</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7427,21 +7424,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>679</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7450,21 +7447,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>681</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7473,21 +7470,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>686</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7496,21 +7493,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>690</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7519,21 +7516,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>694</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7542,21 +7539,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7565,21 +7562,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>702</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7588,21 +7585,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>705</v>
-      </c>
       <c r="G19" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7611,21 +7608,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7634,21 +7631,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7657,21 +7654,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7680,21 +7677,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>724</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7703,21 +7700,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>728</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7726,21 +7723,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7749,21 +7746,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>738</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7772,16 +7769,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7806,7 +7803,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7816,30 +7813,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7848,21 +7845,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>744</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7871,21 +7868,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>748</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7894,21 +7891,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>752</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7917,21 +7914,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>756</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7940,21 +7937,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7963,21 +7960,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>765</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7986,21 +7983,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>768</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8009,21 +8006,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>771</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8032,21 +8029,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8055,21 +8052,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>779</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8078,21 +8075,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>782</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8101,21 +8098,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>786</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8124,21 +8121,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>789</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8147,21 +8144,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8170,21 +8167,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8193,21 +8190,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>799</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8216,21 +8213,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8239,21 +8236,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>807</v>
-      </c>
       <c r="G19" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8262,21 +8259,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>810</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8285,21 +8282,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>814</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8308,21 +8305,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8331,21 +8328,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>823</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8354,21 +8351,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>827</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8377,21 +8374,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8400,16 +8397,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8434,7 +8431,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8444,30 +8441,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8476,21 +8473,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>841</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8499,21 +8496,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8522,21 +8519,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>850</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8545,21 +8542,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8568,21 +8565,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>858</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8591,21 +8588,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>861</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8614,21 +8611,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>865</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8637,21 +8634,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>869</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8660,21 +8657,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>873</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8683,21 +8680,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8706,21 +8703,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>881</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8729,21 +8726,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8752,21 +8749,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>889</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8775,21 +8772,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8798,21 +8795,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>897</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8821,21 +8818,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>900</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8844,21 +8841,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>904</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8867,21 +8864,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8890,21 +8887,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>909</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8913,21 +8910,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8936,21 +8933,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>916</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8959,21 +8956,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>919</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8982,21 +8979,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>925</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9005,21 +9002,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>929</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9028,21 +9025,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>932</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9051,21 +9048,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>936</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9074,21 +9071,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>939</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9097,21 +9094,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9120,21 +9117,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>948</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9143,21 +9140,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>952</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9166,21 +9163,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>956</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9189,21 +9186,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>960</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9212,21 +9209,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>963</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9235,21 +9232,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9258,21 +9255,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>971</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9281,16 +9278,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>975</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1027">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 19:00</t>
+    <t xml:space="preserve">25/05/2024 22:40</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,13 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 19:15</t>
+    <t xml:space="preserve">25/05/2024 22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 19:15</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +88,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 19:20</t>
+    <t xml:space="preserve">25/05/2024 22:50</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,19 +103,22 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
+    <t xml:space="preserve">25/05/2024 22:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Detectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics and On-Detector Processing</t>
+  </si>
+  <si>
     <t xml:space="preserve">25/05/2024 19:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas Detectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
     <t xml:space="preserve">25/05/2024 19:30</t>
@@ -3225,10 +3234,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3299,10 +3308,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,122 +3322,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3462,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3463,30 +3472,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3495,21 +3504,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3518,21 +3527,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3541,21 +3550,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3564,21 +3573,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3587,21 +3596,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3610,21 +3619,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3633,21 +3642,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3656,21 +3665,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3679,21 +3688,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3702,21 +3711,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3725,21 +3734,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3748,21 +3757,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3771,21 +3780,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3794,16 +3803,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3837,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3838,30 +3847,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3870,21 +3879,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3893,21 +3902,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3916,21 +3925,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3939,21 +3948,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3962,21 +3971,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3985,21 +3994,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4008,21 +4017,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4031,21 +4040,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4054,21 +4063,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4077,21 +4086,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4100,21 +4109,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4123,21 +4132,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4146,21 +4155,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4169,21 +4178,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4192,21 +4201,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4215,21 +4224,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4238,21 +4247,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4261,21 +4270,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4284,21 +4293,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4307,21 +4316,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4330,21 +4339,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4353,16 +4362,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4396,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4397,30 +4406,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4429,21 +4438,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4452,21 +4461,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4475,21 +4484,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4498,21 +4507,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4521,21 +4530,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4544,21 +4553,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4567,21 +4576,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4590,21 +4599,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4613,21 +4622,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4636,21 +4645,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4659,21 +4668,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4682,21 +4691,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4705,21 +4714,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4728,21 +4737,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4751,21 +4760,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4774,21 +4783,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4797,21 +4806,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4820,21 +4829,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4843,21 +4852,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4866,21 +4875,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4889,21 +4898,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4912,21 +4921,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4935,16 +4944,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +4978,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4979,30 +4988,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5011,21 +5020,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5034,21 +5043,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5057,21 +5066,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5080,21 +5089,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5103,21 +5112,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5126,21 +5135,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5149,21 +5158,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5172,21 +5181,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5195,21 +5204,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5218,21 +5227,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5241,21 +5250,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5264,21 +5273,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5287,21 +5296,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5310,21 +5319,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5333,21 +5342,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5356,21 +5365,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5379,21 +5388,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5402,21 +5411,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5425,21 +5434,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5448,21 +5457,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5471,21 +5480,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5494,21 +5503,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5517,21 +5526,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5540,21 +5549,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5563,21 +5572,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5586,21 +5595,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5609,21 +5618,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5632,21 +5641,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5655,21 +5664,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5678,21 +5687,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5701,21 +5710,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5724,21 +5733,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5747,21 +5756,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5770,21 +5779,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5793,21 +5802,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5816,16 +5825,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5850,7 +5859,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5860,30 +5869,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5892,21 +5901,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5915,21 +5924,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5938,21 +5947,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5961,21 +5970,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5984,21 +5993,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6007,21 +6016,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6030,21 +6039,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6053,21 +6062,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6076,21 +6085,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6099,21 +6108,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6122,21 +6131,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6145,21 +6154,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6168,21 +6177,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6191,21 +6200,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6214,21 +6223,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6237,21 +6246,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6260,21 +6269,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6283,21 +6292,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6306,21 +6315,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6329,21 +6338,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6352,21 +6361,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6375,21 +6384,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6398,21 +6407,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6421,21 +6430,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6444,21 +6453,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6467,21 +6476,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6490,21 +6499,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6513,21 +6522,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6536,21 +6545,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6559,21 +6568,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6582,21 +6591,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6605,16 +6614,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6648,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6649,30 +6658,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6681,21 +6690,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6704,21 +6713,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6727,21 +6736,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6750,21 +6759,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6773,21 +6782,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6796,21 +6805,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6819,21 +6828,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6842,21 +6851,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6865,21 +6874,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6888,21 +6897,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6911,21 +6920,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6934,21 +6943,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6957,21 +6966,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6980,21 +6989,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7003,21 +7012,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7026,21 +7035,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7049,21 +7058,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7072,21 +7081,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7095,21 +7104,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7118,16 +7127,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7152,7 +7161,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7162,30 +7171,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7194,21 +7203,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7217,21 +7226,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7240,21 +7249,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7263,21 +7272,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7286,21 +7295,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7309,21 +7318,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7332,21 +7341,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7355,21 +7364,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7378,21 +7387,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7401,21 +7410,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7424,21 +7433,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7447,21 +7456,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7470,21 +7479,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7493,21 +7502,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7516,21 +7525,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7539,21 +7548,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7562,21 +7571,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7585,21 +7594,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7608,21 +7617,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7631,21 +7640,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7654,21 +7663,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7677,21 +7686,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7700,21 +7709,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7723,21 +7732,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7746,21 +7755,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7769,16 +7778,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7803,7 +7812,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7813,30 +7822,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7845,21 +7854,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7868,21 +7877,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7891,21 +7900,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7914,21 +7923,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7937,21 +7946,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7960,21 +7969,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7983,21 +7992,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8006,21 +8015,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8029,21 +8038,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8052,21 +8061,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8075,21 +8084,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8098,21 +8107,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8121,21 +8130,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8144,21 +8153,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8167,21 +8176,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8190,21 +8199,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8213,21 +8222,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8236,21 +8245,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8259,21 +8268,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8282,21 +8291,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8305,21 +8314,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8328,21 +8337,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8351,21 +8360,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8374,21 +8383,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8397,16 +8406,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -8431,7 +8440,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8441,30 +8450,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8473,21 +8482,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8496,21 +8505,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8519,21 +8528,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8542,21 +8551,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8565,21 +8574,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8588,21 +8597,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8611,21 +8620,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8634,21 +8643,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8657,21 +8666,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8680,21 +8689,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8703,21 +8712,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8726,21 +8735,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8749,21 +8758,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8772,21 +8781,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8795,21 +8804,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8818,21 +8827,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8841,21 +8850,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8864,21 +8873,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8887,21 +8896,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8910,21 +8919,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8933,21 +8942,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8956,21 +8965,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8979,21 +8988,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9002,21 +9011,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9025,21 +9034,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9048,21 +9057,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9071,21 +9080,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9094,21 +9103,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9117,21 +9126,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9140,21 +9149,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9163,21 +9172,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9186,21 +9195,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9209,21 +9218,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9232,21 +9241,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9255,21 +9264,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9278,16 +9287,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1028">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 22:40</t>
+    <t xml:space="preserve">26/05/2024 07:42</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,25 +67,28 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
+    <t xml:space="preserve">26/05/2024 07:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 19:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/05/2024 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid State Detectors</t>
+  </si>
+  <si>
     <t xml:space="preserve">25/05/2024 22:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 19:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 21:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/05/2024 13:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
     <t xml:space="preserve">25/05/2024 22:50</t>
@@ -3234,10 +3237,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3336,108 +3339,108 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3465,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3472,30 +3475,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3504,21 +3507,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3527,21 +3530,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3550,21 +3553,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3573,21 +3576,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3596,21 +3599,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3619,21 +3622,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3642,21 +3645,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3665,21 +3668,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3688,21 +3691,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3711,21 +3714,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3734,21 +3737,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3757,21 +3760,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3780,21 +3783,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3803,16 +3806,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3840,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3847,30 +3850,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3879,21 +3882,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3902,21 +3905,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3925,21 +3928,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3948,21 +3951,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3971,21 +3974,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3994,21 +3997,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4017,21 +4020,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4040,21 +4043,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4063,21 +4066,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4086,21 +4089,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4109,21 +4112,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4132,21 +4135,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4155,21 +4158,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4178,21 +4181,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4201,21 +4204,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4224,21 +4227,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4247,21 +4250,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4270,21 +4273,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4293,21 +4296,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4316,21 +4319,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4339,21 +4342,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4362,16 +4365,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4399,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4406,30 +4409,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4438,21 +4441,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4461,21 +4464,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4484,21 +4487,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4507,21 +4510,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4530,21 +4533,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4553,21 +4556,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4576,21 +4579,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4599,21 +4602,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4622,21 +4625,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4645,21 +4648,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4668,21 +4671,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4691,21 +4694,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4714,21 +4717,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4737,21 +4740,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4760,21 +4763,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4783,21 +4786,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4806,21 +4809,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4829,21 +4832,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4852,21 +4855,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4875,21 +4878,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4898,21 +4901,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4921,21 +4924,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4944,16 +4947,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4978,7 +4981,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4988,30 +4991,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5020,21 +5023,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5043,21 +5046,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5066,21 +5069,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5089,21 +5092,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5112,21 +5115,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5135,21 +5138,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5158,21 +5161,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5181,21 +5184,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5204,21 +5207,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5227,21 +5230,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5250,21 +5253,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5273,21 +5276,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5296,21 +5299,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5319,21 +5322,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5342,21 +5345,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5365,21 +5368,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5388,21 +5391,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5411,21 +5414,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5434,21 +5437,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5457,21 +5460,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5480,21 +5483,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5503,21 +5506,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5526,21 +5529,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5549,21 +5552,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5572,21 +5575,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5595,21 +5598,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5618,21 +5621,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5641,21 +5644,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5664,21 +5667,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5687,21 +5690,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5710,21 +5713,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5733,21 +5736,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5756,21 +5759,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5779,21 +5782,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5802,21 +5805,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5825,16 +5828,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5859,7 +5862,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5869,30 +5872,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5901,21 +5904,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5924,21 +5927,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5947,21 +5950,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5970,21 +5973,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5993,21 +5996,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6016,21 +6019,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6039,21 +6042,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6062,21 +6065,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6085,21 +6088,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6108,21 +6111,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6131,21 +6134,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6154,21 +6157,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6177,21 +6180,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6200,21 +6203,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6223,21 +6226,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6246,21 +6249,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6269,21 +6272,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6292,21 +6295,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6315,21 +6318,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6338,21 +6341,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6361,21 +6364,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6384,21 +6387,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6407,21 +6410,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6430,21 +6433,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6453,21 +6456,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6476,21 +6479,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6499,21 +6502,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6522,21 +6525,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6545,21 +6548,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6568,21 +6571,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6591,21 +6594,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6614,16 +6617,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6648,7 +6651,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6658,30 +6661,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6690,21 +6693,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6713,21 +6716,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6736,21 +6739,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6759,21 +6762,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6782,21 +6785,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6805,21 +6808,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6828,21 +6831,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6851,21 +6854,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6874,21 +6877,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6897,21 +6900,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6920,21 +6923,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6943,21 +6946,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6966,21 +6969,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6989,21 +6992,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7012,21 +7015,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7035,21 +7038,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7058,21 +7061,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7081,21 +7084,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7104,21 +7107,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7127,16 +7130,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7161,7 +7164,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7171,30 +7174,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7203,21 +7206,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7226,21 +7229,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7249,21 +7252,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7272,21 +7275,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7295,21 +7298,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7318,21 +7321,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7341,21 +7344,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7364,21 +7367,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7387,21 +7390,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7410,21 +7413,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7433,21 +7436,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7456,21 +7459,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7479,21 +7482,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7502,21 +7505,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7525,21 +7528,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7548,21 +7551,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7571,21 +7574,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7594,21 +7597,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7617,21 +7620,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7640,21 +7643,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7663,21 +7666,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7686,21 +7689,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7709,21 +7712,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7732,21 +7735,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7755,21 +7758,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7778,16 +7781,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +7815,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7822,30 +7825,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7854,21 +7857,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7877,21 +7880,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7900,21 +7903,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7923,21 +7926,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7946,21 +7949,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7969,21 +7972,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7992,21 +7995,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8015,21 +8018,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8038,21 +8041,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8061,21 +8064,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8084,21 +8087,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8107,21 +8110,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8130,21 +8133,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8153,21 +8156,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8176,21 +8179,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8199,21 +8202,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8222,21 +8225,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8245,21 +8248,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8268,21 +8271,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8291,21 +8294,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8314,21 +8317,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8337,21 +8340,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8360,21 +8363,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8383,21 +8386,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8406,16 +8409,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -8440,7 +8443,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8450,30 +8453,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8482,21 +8485,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8505,21 +8508,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8528,21 +8531,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8551,21 +8554,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8574,21 +8577,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8597,21 +8600,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8620,21 +8623,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8643,21 +8646,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8666,21 +8669,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8689,21 +8692,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8712,21 +8715,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8735,21 +8738,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8758,21 +8761,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8781,21 +8784,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8804,21 +8807,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8827,21 +8830,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8850,21 +8853,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8873,21 +8876,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8896,21 +8899,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8919,21 +8922,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8942,21 +8945,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8965,21 +8968,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8988,21 +8991,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9011,21 +9014,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9034,21 +9037,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9057,21 +9060,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9080,21 +9083,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9103,21 +9106,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9126,21 +9129,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9149,21 +9152,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9172,21 +9175,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9195,21 +9198,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9218,21 +9221,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9241,21 +9244,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9264,21 +9267,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9287,16 +9290,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1026">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 07:42</t>
+    <t xml:space="preserve">26/05/2024 09:20</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 07:44</t>
+    <t xml:space="preserve">26/05/2024 09:25</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 19:00</t>
@@ -88,10 +88,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 22:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/2024 22:50</t>
+    <t xml:space="preserve">26/05/2024 09:30</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -106,7 +103,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 22:55</t>
+    <t xml:space="preserve">26/05/2024 09:35</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -121,10 +118,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2024 19:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/2024 19:30</t>
+    <t xml:space="preserve">26/05/2024 09:40</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3237,10 +3231,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3339,108 +3333,108 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3465,7 +3459,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3475,30 +3469,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3507,21 +3501,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3530,21 +3524,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3553,21 +3547,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>988</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3576,21 +3570,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3599,21 +3593,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3622,21 +3616,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3645,21 +3639,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>1002</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3668,21 +3662,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3691,21 +3685,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3714,21 +3708,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1014</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3737,21 +3731,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3760,21 +3754,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3783,21 +3777,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3806,16 +3800,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1025</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +3834,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3850,30 +3844,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3882,21 +3876,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3905,21 +3899,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3928,21 +3922,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3951,21 +3945,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3974,21 +3968,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3997,21 +3991,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4020,21 +4014,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4043,21 +4037,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4066,21 +4060,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4089,21 +4083,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4112,21 +4106,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4135,21 +4129,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4158,21 +4152,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4181,21 +4175,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4204,21 +4198,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4227,21 +4221,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4250,21 +4244,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4273,21 +4267,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4296,21 +4290,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4319,21 +4313,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4342,21 +4336,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4365,16 +4359,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4399,7 +4393,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4409,30 +4403,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4441,21 +4435,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4464,21 +4458,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4487,21 +4481,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4510,21 +4504,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4533,21 +4527,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4556,21 +4550,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4579,21 +4573,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4602,21 +4596,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4625,21 +4619,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4648,21 +4642,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4671,21 +4665,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4694,21 +4688,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4717,21 +4711,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4740,21 +4734,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4763,21 +4757,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4786,21 +4780,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4809,21 +4803,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4832,21 +4826,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4855,21 +4849,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4878,21 +4872,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>239</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4901,21 +4895,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4924,21 +4918,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4947,16 +4941,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4981,7 +4975,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4991,30 +4985,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5023,21 +5017,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5046,21 +5040,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5069,21 +5063,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>267</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5092,21 +5086,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5115,21 +5109,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5138,21 +5132,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5161,21 +5155,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5184,21 +5178,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5207,21 +5201,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5230,21 +5224,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5253,21 +5247,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5276,21 +5270,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>305</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5299,21 +5293,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5322,21 +5316,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5345,21 +5339,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5368,21 +5362,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5391,21 +5385,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5414,21 +5408,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5437,21 +5431,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5460,21 +5454,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5483,21 +5477,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5506,21 +5500,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5529,21 +5523,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5552,21 +5546,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5575,21 +5569,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5598,21 +5592,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>368</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5621,21 +5615,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5644,21 +5638,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>379</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5667,21 +5661,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5690,21 +5684,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5713,21 +5707,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5736,21 +5730,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5759,21 +5753,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>401</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5782,21 +5776,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5805,21 +5799,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5828,16 +5822,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5862,7 +5856,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5872,30 +5866,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5904,21 +5898,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5927,21 +5921,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5950,21 +5944,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5973,21 +5967,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5996,21 +5990,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>436</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6019,21 +6013,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6042,21 +6036,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6065,21 +6059,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>446</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6088,21 +6082,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6111,21 +6105,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>456</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6134,21 +6128,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6157,21 +6151,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>467</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6180,21 +6174,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6203,21 +6197,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6226,21 +6220,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6249,21 +6243,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>482</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6272,21 +6266,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>485</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6295,21 +6289,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>490</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6318,21 +6312,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>496</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6341,21 +6335,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6364,21 +6358,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>505</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6387,21 +6381,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6410,21 +6404,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6433,21 +6427,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6456,21 +6450,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6479,21 +6473,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6502,21 +6496,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>527</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6525,21 +6519,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6548,21 +6542,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6571,21 +6565,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6594,21 +6588,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6617,16 +6611,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6645,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6661,30 +6655,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6693,21 +6687,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>553</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6716,21 +6710,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6739,21 +6733,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>561</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6762,21 +6756,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>564</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6785,21 +6779,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6808,21 +6802,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6831,21 +6825,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>578</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6854,21 +6848,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>584</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6877,21 +6871,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>588</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6900,21 +6894,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6923,21 +6917,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6946,21 +6940,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6969,21 +6963,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>606</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6992,21 +6986,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7015,21 +7009,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7038,21 +7032,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7061,21 +7055,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7084,21 +7078,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>628</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7107,21 +7101,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7130,16 +7124,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>638</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7164,7 +7158,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7174,30 +7168,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7206,21 +7200,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7229,21 +7223,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>645</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7252,21 +7246,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7275,21 +7269,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7298,21 +7292,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7321,21 +7315,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>658</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7344,21 +7338,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7367,21 +7361,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>668</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7390,21 +7384,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7413,21 +7407,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7436,21 +7430,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>682</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7459,21 +7453,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7482,21 +7476,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>689</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7505,21 +7499,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>693</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7528,21 +7522,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>697</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7551,21 +7545,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>699</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7574,21 +7568,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>705</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7597,21 +7591,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7620,21 +7614,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>711</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7643,21 +7637,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7666,21 +7660,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7689,21 +7683,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>727</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7712,21 +7706,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7735,21 +7729,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7758,21 +7752,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>741</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7781,16 +7775,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7809,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7825,30 +7819,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7857,21 +7851,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>747</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7880,21 +7874,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>751</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7903,21 +7897,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>755</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7926,21 +7920,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>759</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7949,21 +7943,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7972,21 +7966,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>768</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7995,21 +7989,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8018,21 +8012,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8041,21 +8035,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8064,21 +8058,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8087,21 +8081,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8110,21 +8104,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>789</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8133,21 +8127,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8156,21 +8150,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8179,21 +8173,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8202,21 +8196,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8225,21 +8219,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>805</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8248,21 +8242,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8271,21 +8265,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8294,21 +8288,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>817</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8317,21 +8311,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8340,21 +8334,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>826</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8363,21 +8357,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>830</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8386,21 +8380,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8409,16 +8403,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +8437,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8453,30 +8447,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8485,21 +8479,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8508,21 +8502,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>847</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8531,21 +8525,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>853</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8554,21 +8548,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>855</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8577,21 +8571,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8600,21 +8594,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8623,21 +8617,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8646,21 +8640,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8669,21 +8663,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>876</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8692,21 +8686,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8715,21 +8709,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8738,21 +8732,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>887</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8761,21 +8755,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8784,21 +8778,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8807,21 +8801,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8830,21 +8824,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8853,21 +8847,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>907</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8876,21 +8870,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8899,21 +8893,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8922,21 +8916,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>915</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8945,21 +8939,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8968,21 +8962,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>923</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8991,21 +8985,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9014,21 +9008,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9037,21 +9031,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9060,21 +9054,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>939</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9083,21 +9077,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9106,21 +9100,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>945</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9129,21 +9123,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>951</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9152,21 +9146,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>955</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9175,21 +9169,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>959</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9198,21 +9192,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>963</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9221,21 +9215,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9244,21 +9238,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>968</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9267,21 +9261,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>974</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9290,16 +9284,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>978</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:20</t>
+    <t xml:space="preserve">26/05/2024 09:40</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:25</t>
+    <t xml:space="preserve">26/05/2024 09:45</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 19:00</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:30</t>
+    <t xml:space="preserve">26/05/2024 09:50</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:35</t>
+    <t xml:space="preserve">26/05/2024 09:55</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:40</t>
+    <t xml:space="preserve">26/05/2024 10:00</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3231,10 +3231,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3456,10 +3456,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3831,10 +3831,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4390,10 +4390,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4972,10 +4972,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5853,10 +5853,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6642,10 +6642,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7155,10 +7155,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7806,10 +7806,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8434,10 +8434,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:40</t>
+    <t xml:space="preserve">26/05/2024 10:10</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,13 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 19:15</t>
+    <t xml:space="preserve">26/05/2024 10:15</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -88,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:50</t>
+    <t xml:space="preserve">26/05/2024 10:20</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -103,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 09:55</t>
+    <t xml:space="preserve">26/05/2024 10:25</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -118,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:00</t>
+    <t xml:space="preserve">26/05/2024 10:30</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3231,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3305,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,122 +3313,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3456,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3469,30 +3463,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3501,21 +3495,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>979</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3524,21 +3518,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3547,21 +3541,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3570,21 +3564,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3593,21 +3587,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3616,21 +3610,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3639,21 +3633,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>1000</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3662,21 +3656,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3685,21 +3679,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3708,21 +3702,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1012</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3731,21 +3725,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3754,21 +3748,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3777,21 +3771,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3800,16 +3794,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -3831,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3844,30 +3838,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3876,21 +3870,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3899,21 +3893,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3922,21 +3916,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3945,21 +3939,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3968,21 +3962,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3991,21 +3985,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4014,21 +4008,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4037,21 +4031,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4060,21 +4054,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4083,21 +4077,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4106,21 +4100,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4129,21 +4123,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4152,21 +4146,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4175,21 +4169,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4198,21 +4192,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4221,21 +4215,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4244,21 +4238,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4267,21 +4261,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4290,21 +4284,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4313,21 +4307,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4336,21 +4330,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4359,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4390,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4403,30 +4397,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4435,21 +4429,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4458,21 +4452,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4481,21 +4475,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4504,21 +4498,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4527,21 +4521,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4550,21 +4544,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4573,21 +4567,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4596,21 +4590,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4619,21 +4613,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4642,21 +4636,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4665,21 +4659,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4688,21 +4682,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4711,21 +4705,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4734,21 +4728,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4757,21 +4751,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4780,21 +4774,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4803,21 +4797,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4826,21 +4820,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4849,21 +4843,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4872,21 +4866,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4895,21 +4889,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4918,21 +4912,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4941,16 +4935,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4972,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4985,30 +4979,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5017,21 +5011,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5040,21 +5034,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5063,21 +5057,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5086,21 +5080,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5109,21 +5103,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5132,21 +5126,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5155,21 +5149,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5178,21 +5172,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5201,21 +5195,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5224,21 +5218,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5247,21 +5241,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>299</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5270,21 +5264,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5293,21 +5287,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5316,21 +5310,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5339,21 +5333,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5362,21 +5356,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5385,21 +5379,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5408,21 +5402,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5431,21 +5425,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5454,21 +5448,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5477,21 +5471,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5500,21 +5494,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5523,21 +5517,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5546,21 +5540,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5569,21 +5563,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5592,21 +5586,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5615,21 +5609,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5638,21 +5632,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>377</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5661,21 +5655,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5684,21 +5678,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5707,21 +5701,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5730,21 +5724,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5753,21 +5747,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5776,21 +5770,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5799,21 +5793,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5822,16 +5816,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5853,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5866,30 +5860,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5898,21 +5892,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5921,21 +5915,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5944,21 +5938,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5967,21 +5961,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>430</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5990,21 +5984,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>434</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6013,21 +6007,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6036,21 +6030,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6059,21 +6053,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6082,21 +6076,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6105,21 +6099,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6128,21 +6122,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6151,21 +6145,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6174,21 +6168,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6197,21 +6191,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6220,21 +6214,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6243,21 +6237,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6266,21 +6260,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6289,21 +6283,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6312,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>494</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6335,21 +6329,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6358,21 +6352,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6381,21 +6375,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6404,21 +6398,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6427,21 +6421,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6450,21 +6444,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6473,21 +6467,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6496,21 +6490,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>525</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6519,21 +6513,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6542,21 +6536,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6565,21 +6559,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6588,21 +6582,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>540</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6611,16 +6605,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6642,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6655,30 +6649,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6687,21 +6681,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>551</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6710,21 +6704,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6733,21 +6727,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6756,21 +6750,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6779,21 +6773,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6802,21 +6796,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6825,21 +6819,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6848,21 +6842,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6871,21 +6865,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>586</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6894,21 +6888,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6917,21 +6911,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6940,21 +6934,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6963,21 +6957,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>604</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6986,21 +6980,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7009,21 +7003,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7032,21 +7026,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7055,21 +7049,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>623</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7078,21 +7072,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7101,21 +7095,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7124,16 +7118,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>636</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7155,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7168,30 +7162,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7200,21 +7194,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7223,21 +7217,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7246,21 +7240,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7269,21 +7263,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7292,21 +7286,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7315,21 +7309,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7338,21 +7332,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7361,21 +7355,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>666</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7384,21 +7378,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7407,21 +7401,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>674</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7430,21 +7424,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>680</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7453,21 +7447,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7476,21 +7470,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>687</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7499,21 +7493,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>691</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7522,21 +7516,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>695</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7545,21 +7539,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7568,21 +7562,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>703</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7591,21 +7585,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7614,21 +7608,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7637,21 +7631,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7660,21 +7654,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7683,21 +7677,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7706,21 +7700,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>728</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7729,21 +7723,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7752,21 +7746,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7775,16 +7769,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7806,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7819,30 +7813,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7851,21 +7845,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>745</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7874,21 +7868,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>749</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7897,21 +7891,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>753</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7920,21 +7914,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>757</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7943,21 +7937,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7966,21 +7960,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>766</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7989,21 +7983,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8012,21 +8006,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8035,21 +8029,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8058,21 +8052,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8081,21 +8075,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8104,21 +8098,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>787</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8127,21 +8121,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8150,21 +8144,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8173,21 +8167,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8196,21 +8190,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8219,21 +8213,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8242,21 +8236,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8265,21 +8259,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8288,21 +8282,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>815</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8311,21 +8305,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8334,21 +8328,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>824</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8357,21 +8351,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>828</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8380,21 +8374,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8403,16 +8397,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -8434,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8447,30 +8441,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8479,21 +8473,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>841</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8502,21 +8496,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8525,21 +8519,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>851</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8548,21 +8542,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8571,21 +8565,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8594,21 +8588,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8617,21 +8611,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>865</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8640,21 +8634,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8663,21 +8657,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>874</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8686,21 +8680,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8709,21 +8703,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8732,21 +8726,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8755,21 +8749,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8778,21 +8772,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8801,21 +8795,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8824,21 +8818,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8847,21 +8841,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>905</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8870,21 +8864,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8893,21 +8887,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8916,21 +8910,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8939,21 +8933,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8962,21 +8956,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8985,21 +8979,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>925</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9008,21 +9002,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9031,21 +9025,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9054,21 +9048,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>937</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9077,21 +9071,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9100,21 +9094,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9123,21 +9117,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>949</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9146,21 +9140,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>953</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9169,21 +9163,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>957</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9192,21 +9186,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>961</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9215,21 +9209,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9238,21 +9232,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9261,21 +9255,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>972</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9284,16 +9278,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>976</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:10</t>
+    <t xml:space="preserve">26/05/2024 11:00</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:15</t>
+    <t xml:space="preserve">26/05/2024 11:05</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:20</t>
+    <t xml:space="preserve">26/05/2024 11:10</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:25</t>
+    <t xml:space="preserve">26/05/2024 11:15</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 10:30</t>
+    <t xml:space="preserve">26/05/2024 11:20</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5847,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:00</t>
+    <t xml:space="preserve">26/05/2024 11:10</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:05</t>
+    <t xml:space="preserve">26/05/2024 11:15</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:10</t>
+    <t xml:space="preserve">26/05/2024 11:20</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:15</t>
+    <t xml:space="preserve">26/05/2024 11:25</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:20</t>
+    <t xml:space="preserve">26/05/2024 11:30</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3228,7 +3228,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3453,7 +3453,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3828,7 +3828,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4387,7 +4387,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4969,7 +4969,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5850,7 +5850,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6639,7 +6639,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7152,7 +7152,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7803,7 +7803,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8431,7 +8431,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -1462,10 +1462,10 @@
     <t xml:space="preserve">TCAD modeling of radiation induced defects in 4H-SiC diodes and LGADs</t>
   </si>
   <si>
-    <t xml:space="preserve">Philipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaggl</t>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergauer</t>
   </si>
   <si>
     <t xml:space="preserve">475</t>
@@ -3224,11 +3224,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5846,11 +5846,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C12:D12 C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:10</t>
+    <t xml:space="preserve">26/05/2024 11:30</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:15</t>
+    <t xml:space="preserve">26/05/2024 11:35</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:20</t>
+    <t xml:space="preserve">26/05/2024 11:40</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:25</t>
+    <t xml:space="preserve">26/05/2024 11:45</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:30</t>
+    <t xml:space="preserve">26/05/2024 11:50</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3224,11 +3224,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3453,7 +3453,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3828,7 +3828,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4387,7 +4387,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4969,7 +4969,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5846,11 +5846,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6639,7 +6639,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7152,7 +7152,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7803,7 +7803,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8431,7 +8431,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3299,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3453,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3828,7 +3828,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4387,7 +4387,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4969,7 +4969,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5850,7 +5850,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6639,7 +6639,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7152,7 +7152,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7803,7 +7803,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8431,7 +8431,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:30</t>
+    <t xml:space="preserve">26/05/2024 11:50</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:35</t>
+    <t xml:space="preserve">26/05/2024 11:55</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:40</t>
+    <t xml:space="preserve">26/05/2024 12:00</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:45</t>
+    <t xml:space="preserve">26/05/2024 12:05</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:50</t>
+    <t xml:space="preserve">26/05/2024 12:10</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5847,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="C12:D12 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:50</t>
+    <t xml:space="preserve">26/05/2024 12:20</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 11:55</t>
+    <t xml:space="preserve">26/05/2024 12:25</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:00</t>
+    <t xml:space="preserve">26/05/2024 12:30</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:05</t>
+    <t xml:space="preserve">26/05/2024 12:35</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:10</t>
+    <t xml:space="preserve">26/05/2024 12:40</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,10 +3450,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C12:D12 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,10 +3825,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="C12:D12 D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,10 +4384,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C12:D12 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C12:D12 C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5847,10 +5847,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="C12:D12 E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,10 +6636,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C12:D12 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,10 +7149,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="C12:D12 D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,10 +7800,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="C12:D12 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,10 +8428,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C12:D12 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:20</t>
+    <t xml:space="preserve">26/05/2024 12:50</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:25</t>
+    <t xml:space="preserve">26/05/2024 12:55</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:30</t>
+    <t xml:space="preserve">26/05/2024 13:00</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:35</t>
+    <t xml:space="preserve">26/05/2024 13:05</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:40</t>
+    <t xml:space="preserve">26/05/2024 13:10</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3225,10 +3225,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3453,7 +3453,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3828,7 +3828,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4387,7 +4387,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4969,7 +4969,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5850,7 +5850,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6639,7 +6639,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7152,7 +7152,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7803,7 +7803,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8431,7 +8431,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1023">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -1586,9 +1586,6 @@
   </si>
   <si>
     <t xml:space="preserve">Monolithic AC-LGADs, a new frontier in high-performance particle tracking in 4 dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandurrino</t>
   </si>
   <si>
     <t xml:space="preserve">57</t>
@@ -3224,11 +3221,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3453,7 +3450,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3495,21 +3492,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>978</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3518,21 +3515,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>234</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3541,21 +3538,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3564,13 +3561,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>988</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>989</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>132</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3587,13 +3584,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>127</v>
@@ -3601,7 +3598,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3610,13 +3607,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>995</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>166</v>
@@ -3624,7 +3621,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3633,21 +3630,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3656,13 +3653,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>262</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>281</v>
@@ -3670,7 +3667,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3679,21 +3676,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>284</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3702,13 +3699,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>1009</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1010</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>132</v>
@@ -3716,7 +3713,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3725,21 +3722,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>284</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3748,21 +3745,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>1015</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3771,21 +3768,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>1018</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3794,16 +3791,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3825,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4387,7 +4384,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4969,7 +4966,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5846,11 +5843,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6470,18 +6467,18 @@
         <v>518</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>519</v>
+        <v>135</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6490,13 +6487,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>523</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>43</v>
@@ -6504,7 +6501,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6513,21 +6510,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>526</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>453</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6536,21 +6533,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6559,13 +6556,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>164</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>156</v>
@@ -6573,7 +6570,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6582,21 +6579,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6605,16 +6602,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>544</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6636,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6672,7 +6669,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6681,13 +6678,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>548</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>549</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>166</v>
@@ -6695,7 +6692,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6704,13 +6701,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>552</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>553</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>93</v>
@@ -6718,7 +6715,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6727,13 +6724,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>557</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>166</v>
@@ -6741,7 +6738,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6750,21 +6747,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6773,13 +6770,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>156</v>
@@ -6787,7 +6784,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6796,21 +6793,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>570</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6819,21 +6816,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6842,13 +6839,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>580</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>53</v>
@@ -6856,7 +6853,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6865,13 +6862,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>584</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>132</v>
@@ -6879,7 +6876,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6888,21 +6885,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>284</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6911,21 +6908,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6934,21 +6931,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6957,13 +6954,13 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>602</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>53</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6980,21 +6977,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7003,21 +7000,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7026,21 +7023,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7049,13 +7046,13 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>620</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>621</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>181</v>
@@ -7063,7 +7060,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7072,21 +7069,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7095,21 +7092,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7118,13 +7115,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>634</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>281</v>
@@ -7152,7 +7149,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7185,7 +7182,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7194,21 +7191,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>296</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7217,21 +7214,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>642</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7240,13 +7237,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>292</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>337</v>
@@ -7254,7 +7251,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7263,13 +7260,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>156</v>
@@ -7277,7 +7274,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7286,13 +7283,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>514</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>281</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7309,21 +7306,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>262</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7332,21 +7329,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7355,13 +7352,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>337</v>
@@ -7369,7 +7366,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7378,21 +7375,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7401,21 +7398,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7424,13 +7421,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>332</v>
@@ -7438,7 +7435,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7447,21 +7444,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>262</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7470,13 +7467,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>684</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>685</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>53</v>
@@ -7484,7 +7481,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7493,13 +7490,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>688</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>689</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>93</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7516,21 +7513,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>693</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7539,21 +7536,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7562,13 +7559,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>700</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>701</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>166</v>
@@ -7576,7 +7573,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7585,13 +7582,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>132</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7608,21 +7605,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7631,21 +7628,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7654,21 +7651,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>718</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7677,13 +7674,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>723</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>156</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7700,21 +7697,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7723,21 +7720,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>732</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7746,13 +7743,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>737</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>281</v>
@@ -7760,7 +7757,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7769,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>314</v>
@@ -7803,7 +7800,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7836,7 +7833,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7845,13 +7842,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>742</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>743</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>186</v>
@@ -7859,7 +7856,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7868,13 +7865,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>747</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>53</v>
@@ -7882,7 +7879,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7891,21 +7888,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>751</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7914,13 +7911,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>755</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>166</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7937,21 +7934,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7960,13 +7957,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>764</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>402</v>
@@ -7974,7 +7971,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7983,13 +7980,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>166</v>
@@ -7997,7 +7994,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8006,13 +8003,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>184</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>186</v>
@@ -8020,7 +8017,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8029,21 +8026,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8052,13 +8049,13 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>166</v>
@@ -8066,7 +8063,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8075,21 +8072,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>781</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8098,21 +8095,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>785</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8121,13 +8118,13 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>191</v>
@@ -8135,7 +8132,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8144,21 +8141,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8167,21 +8164,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8190,13 +8187,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>797</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>798</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>332</v>
@@ -8204,7 +8201,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8213,21 +8210,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8236,13 +8233,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>262</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>254</v>
@@ -8250,7 +8247,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8259,21 +8256,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>284</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8282,13 +8279,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>812</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>813</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>402</v>
@@ -8296,7 +8293,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8305,21 +8302,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>817</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8328,13 +8325,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>822</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>254</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8351,13 +8348,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>826</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>254</v>
@@ -8365,7 +8362,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8374,21 +8371,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8397,16 +8394,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -8431,7 +8428,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8464,7 +8461,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8473,21 +8470,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8496,21 +8493,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>844</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8519,21 +8516,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>849</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8542,21 +8539,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>853</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8565,21 +8562,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>857</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8588,13 +8585,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>284</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>249</v>
@@ -8602,7 +8599,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8611,21 +8608,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8634,13 +8631,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>868</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>43</v>
@@ -8648,7 +8645,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8657,13 +8654,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>871</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>872</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>43</v>
@@ -8671,7 +8668,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8680,21 +8677,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>876</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8703,21 +8700,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>234</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8726,21 +8723,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>884</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8749,21 +8746,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8772,21 +8769,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8795,10 +8792,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>896</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>453</v>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8818,13 +8815,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>899</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>402</v>
@@ -8832,7 +8829,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8841,13 +8838,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>903</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>186</v>
@@ -8855,7 +8852,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8864,13 +8861,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>292</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>337</v>
@@ -8878,7 +8875,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8887,13 +8884,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>907</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>908</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>402</v>
@@ -8901,7 +8898,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8910,21 +8907,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>912</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8933,21 +8930,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>915</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8956,21 +8953,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>919</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>920</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8979,21 +8976,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -9002,13 +8999,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>928</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>337</v>
@@ -9016,7 +9013,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9025,21 +9022,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>931</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9048,13 +9045,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>933</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>934</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>935</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>43</v>
@@ -9062,7 +9059,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9071,13 +9068,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>937</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>938</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>161</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9094,21 +9091,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9117,13 +9114,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>947</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>166</v>
@@ -9131,7 +9128,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9140,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>950</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>951</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>127</v>
@@ -9154,7 +9151,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9163,13 +9160,13 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>954</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>955</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>132</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9186,21 +9183,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>959</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9209,13 +9206,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>46</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>281</v>
@@ -9223,7 +9220,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9232,21 +9229,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>965</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9255,21 +9252,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>970</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9278,16 +9275,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>974</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">18/05/2024 08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:50</t>
+    <t xml:space="preserve">26/05/2024 15:00</t>
   </si>
   <si>
     <t xml:space="preserve">36242</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 12:55</t>
+    <t xml:space="preserve">26/05/2024 15:05</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 13:00</t>
+    <t xml:space="preserve">26/05/2024 15:10</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 13:05</t>
+    <t xml:space="preserve">26/05/2024 15:15</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 13:10</t>
+    <t xml:space="preserve">26/05/2024 15:20</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
@@ -3221,11 +3221,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3450,7 +3450,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3825,7 +3825,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4384,7 +4384,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4966,7 +4966,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5843,11 +5843,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6636,7 +6636,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7149,7 +7149,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7800,7 +7800,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8428,7 +8428,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1021">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -49,12 +49,12 @@
     <t xml:space="preserve">Photo Detectors and Particle ID</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2024 08:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">26/05/2024 15:00</t>
   </si>
   <si>
+    <t xml:space="preserve">27/05/2024 14:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">36242</t>
   </si>
   <si>
@@ -67,13 +67,10 @@
     <t xml:space="preserve">Integration and Detector Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 15:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">27/05/2024 21:00</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2024 13:30</t>
+    <t xml:space="preserve">28/05/2024 14:00</t>
   </si>
   <si>
     <t xml:space="preserve">36241</t>
@@ -82,7 +79,7 @@
     <t xml:space="preserve">Solid State Detectors</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 15:10</t>
+    <t xml:space="preserve">29/05/2024 21:00</t>
   </si>
   <si>
     <t xml:space="preserve">36243</t>
@@ -97,7 +94,7 @@
     <t xml:space="preserve">Detector Techniques for Cosmology and Astroparticle Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 15:15</t>
+    <t xml:space="preserve">30/05/2024 14:00</t>
   </si>
   <si>
     <t xml:space="preserve">36246</t>
@@ -112,16 +109,13 @@
     <t xml:space="preserve">Electronics and On-Detector Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2024 15:20</t>
+    <t xml:space="preserve">31/05/2024 14:00</t>
   </si>
   <si>
     <t xml:space="preserve">36244</t>
   </si>
   <si>
     <t xml:space="preserve">Low Temperature, Quantum and Emerging Technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/05/2024 13:30</t>
   </si>
   <si>
     <t xml:space="preserve">31/05/2024 21:00</t>
@@ -3222,10 +3216,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
@@ -3296,10 +3290,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,122 +3304,122 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3444,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3460,30 +3454,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3492,21 +3486,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>976</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3515,21 +3509,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3538,21 +3532,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>983</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3561,21 +3555,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3584,21 +3578,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3607,21 +3601,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3630,21 +3624,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>997</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3653,21 +3647,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3676,21 +3670,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3699,21 +3693,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1009</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3722,21 +3716,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227384</v>
@@ -3745,21 +3739,21 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227600</v>
@@ -3768,21 +3762,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227338</v>
@@ -3791,16 +3785,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>1020</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -3825,7 +3819,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -3835,30 +3829,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227784</v>
@@ -3867,21 +3861,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>228031</v>
@@ -3890,21 +3884,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227597</v>
@@ -3913,21 +3907,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227401</v>
@@ -3936,21 +3930,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>221918</v>
@@ -3959,21 +3953,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227351</v>
@@ -3982,21 +3976,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227570</v>
@@ -4005,21 +3999,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227343</v>
@@ -4028,21 +4022,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227400</v>
@@ -4051,21 +4045,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227307</v>
@@ -4074,21 +4068,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227739</v>
@@ -4097,21 +4091,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227789</v>
@@ -4120,21 +4114,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227796</v>
@@ -4143,21 +4137,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227577</v>
@@ -4166,21 +4160,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227571</v>
@@ -4189,21 +4183,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227799</v>
@@ -4212,21 +4206,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227356</v>
@@ -4235,21 +4229,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227609</v>
@@ -4258,21 +4252,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227746</v>
@@ -4281,21 +4275,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227586</v>
@@ -4304,21 +4298,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227701</v>
@@ -4327,21 +4321,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227603</v>
@@ -4350,16 +4344,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +4378,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4394,30 +4388,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227795</v>
@@ -4426,21 +4420,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227777</v>
@@ -4449,21 +4443,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227535</v>
@@ -4472,21 +4466,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227552</v>
@@ -4495,21 +4489,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227611</v>
@@ -4518,21 +4512,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227723</v>
@@ -4541,21 +4535,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227354</v>
@@ -4564,21 +4558,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227718</v>
@@ -4587,21 +4581,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227543</v>
@@ -4610,21 +4604,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227592</v>
@@ -4633,21 +4627,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227327</v>
@@ -4656,21 +4650,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227698</v>
@@ -4679,21 +4673,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227803</v>
@@ -4702,21 +4696,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227360</v>
@@ -4725,21 +4719,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>231157</v>
@@ -4748,21 +4742,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227946</v>
@@ -4771,21 +4765,21 @@
         <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227358</v>
@@ -4794,21 +4788,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227362</v>
@@ -4817,21 +4811,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227364</v>
@@ -4840,21 +4834,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227598</v>
@@ -4863,21 +4857,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>235</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227826</v>
@@ -4886,21 +4880,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227802</v>
@@ -4909,21 +4903,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>244</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227562</v>
@@ -4932,16 +4926,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +4960,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -4976,30 +4970,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227741</v>
@@ -5008,21 +5002,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227330</v>
@@ -5031,21 +5025,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227554</v>
@@ -5054,21 +5048,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227258</v>
@@ -5077,21 +5071,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227347</v>
@@ -5100,21 +5094,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227782</v>
@@ -5123,21 +5117,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227537</v>
@@ -5146,21 +5140,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227374</v>
@@ -5169,21 +5163,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>285</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227557</v>
@@ -5192,21 +5186,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227818</v>
@@ -5215,21 +5209,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227342</v>
@@ -5238,21 +5232,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227373</v>
@@ -5261,21 +5255,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227816</v>
@@ -5284,21 +5278,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>228273</v>
@@ -5307,21 +5301,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227337</v>
@@ -5330,21 +5324,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227564</v>
@@ -5353,21 +5347,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227821</v>
@@ -5376,21 +5370,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227370</v>
@@ -5399,21 +5393,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>326</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227365</v>
@@ -5422,21 +5416,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227352</v>
@@ -5445,21 +5439,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227812</v>
@@ -5468,21 +5462,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227769</v>
@@ -5491,21 +5485,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227589</v>
@@ -5514,21 +5508,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227579</v>
@@ -5537,21 +5531,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227252</v>
@@ -5560,21 +5554,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>359</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227544</v>
@@ -5583,21 +5577,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>228131</v>
@@ -5606,21 +5600,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227608</v>
@@ -5629,21 +5623,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227404</v>
@@ -5652,21 +5646,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227610</v>
@@ -5675,21 +5669,21 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227536</v>
@@ -5698,21 +5692,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>389</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227323</v>
@@ -5721,21 +5715,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227829</v>
@@ -5744,21 +5738,21 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227590</v>
@@ -5767,21 +5761,21 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>227344</v>
@@ -5790,21 +5784,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227271</v>
@@ -5813,16 +5807,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5847,7 +5841,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -5857,30 +5851,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>228128</v>
@@ -5889,21 +5883,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227299</v>
@@ -5912,21 +5906,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227325</v>
@@ -5935,21 +5929,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>422</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227375</v>
@@ -5958,21 +5952,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>428</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227262</v>
@@ -5981,21 +5975,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227604</v>
@@ -6004,21 +5998,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227595</v>
@@ -6027,21 +6021,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227313</v>
@@ -6050,21 +6044,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227736</v>
@@ -6073,21 +6067,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227312</v>
@@ -6096,21 +6090,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227538</v>
@@ -6119,21 +6113,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227556</v>
@@ -6142,21 +6136,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>463</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227539</v>
@@ -6165,21 +6159,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227582</v>
@@ -6188,21 +6182,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>470</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227733</v>
@@ -6211,21 +6205,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227839</v>
@@ -6234,21 +6228,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>478</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227820</v>
@@ -6257,21 +6251,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227606</v>
@@ -6280,21 +6274,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>486</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227721</v>
@@ -6303,21 +6297,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>492</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227302</v>
@@ -6326,21 +6320,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227727</v>
@@ -6349,21 +6343,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227558</v>
@@ -6372,21 +6366,21 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>504</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227725</v>
@@ -6395,21 +6389,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227551</v>
@@ -6418,21 +6412,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227314</v>
@@ -6441,21 +6435,21 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227813</v>
@@ -6464,21 +6458,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227324</v>
@@ -6487,21 +6481,21 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>522</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227585</v>
@@ -6510,21 +6504,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>524</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227565</v>
@@ -6533,21 +6527,21 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>229788</v>
@@ -6556,21 +6550,21 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227383</v>
@@ -6579,21 +6573,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227266</v>
@@ -6602,16 +6596,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6630,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -6646,30 +6640,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227801</v>
@@ -6678,21 +6672,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>548</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227584</v>
@@ -6701,21 +6695,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>552</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227294</v>
@@ -6724,21 +6718,21 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>556</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227305</v>
@@ -6747,21 +6741,21 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>559</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227755</v>
@@ -6770,21 +6764,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227817</v>
@@ -6793,21 +6787,21 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>568</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227276</v>
@@ -6816,21 +6810,21 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227780</v>
@@ -6839,21 +6833,21 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>579</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227376</v>
@@ -6862,21 +6856,21 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>583</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227926</v>
@@ -6885,21 +6879,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227700</v>
@@ -6908,21 +6902,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227334</v>
@@ -6931,21 +6925,21 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227553</v>
@@ -6954,21 +6948,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227541</v>
@@ -6977,21 +6971,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227380</v>
@@ -7000,21 +6994,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227767</v>
@@ -7023,21 +7017,21 @@
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227359</v>
@@ -7046,21 +7040,21 @@
         <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>620</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227340</v>
@@ -7069,21 +7063,21 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>623</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227729</v>
@@ -7092,21 +7086,21 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227316</v>
@@ -7115,16 +7109,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>633</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7149,7 +7143,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7159,30 +7153,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227246</v>
@@ -7191,21 +7185,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227308</v>
@@ -7214,21 +7208,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227331</v>
@@ -7237,21 +7231,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227257</v>
@@ -7260,21 +7254,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227834</v>
@@ -7283,21 +7277,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>228001</v>
@@ -7306,21 +7300,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227833</v>
@@ -7329,21 +7323,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227303</v>
@@ -7352,21 +7346,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>663</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227831</v>
@@ -7375,21 +7369,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227559</v>
@@ -7398,21 +7392,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227341</v>
@@ -7421,21 +7415,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>677</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227264</v>
@@ -7444,21 +7438,21 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227290</v>
@@ -7467,21 +7461,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>684</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227326</v>
@@ -7490,21 +7484,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>688</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227561</v>
@@ -7513,21 +7507,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>692</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227357</v>
@@ -7536,21 +7530,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>694</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227297</v>
@@ -7559,21 +7553,21 @@
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>700</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227329</v>
@@ -7582,21 +7576,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227828</v>
@@ -7605,21 +7599,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>706</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227235</v>
@@ -7628,21 +7622,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>711</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227791</v>
@@ -7651,21 +7645,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227269</v>
@@ -7674,21 +7668,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>722</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227548</v>
@@ -7697,21 +7691,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227540</v>
@@ -7720,21 +7714,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227292</v>
@@ -7743,21 +7737,21 @@
         <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>736</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227304</v>
@@ -7766,16 +7760,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7800,7 +7794,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -7810,30 +7804,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227363</v>
@@ -7842,21 +7836,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>742</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227345</v>
@@ -7865,21 +7859,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>746</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227808</v>
@@ -7888,21 +7882,21 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>750</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227301</v>
@@ -7911,21 +7905,21 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>754</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227369</v>
@@ -7934,21 +7928,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227583</v>
@@ -7957,21 +7951,21 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>763</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227759</v>
@@ -7980,21 +7974,21 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227309</v>
@@ -8003,21 +7997,21 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227256</v>
@@ -8026,21 +8020,21 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>772</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227233</v>
@@ -8049,21 +8043,21 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227709</v>
@@ -8072,21 +8066,21 @@
         <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>228628</v>
@@ -8095,21 +8089,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>784</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227532</v>
@@ -8118,21 +8112,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>227368</v>
@@ -8141,21 +8135,21 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227596</v>
@@ -8164,21 +8158,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227406</v>
@@ -8187,21 +8181,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227531</v>
@@ -8210,21 +8204,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227546</v>
@@ -8233,21 +8227,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227699</v>
@@ -8256,21 +8250,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227379</v>
@@ -8279,21 +8273,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>812</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>228006</v>
@@ -8302,21 +8296,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>815</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>229417</v>
@@ -8325,21 +8319,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>821</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>229618</v>
@@ -8348,21 +8342,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>825</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>227268</v>
@@ -8371,21 +8365,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227311</v>
@@ -8394,16 +8388,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -8428,7 +8422,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -8438,30 +8432,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227255</v>
@@ -8470,21 +8464,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227372</v>
@@ -8493,21 +8487,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227761</v>
@@ -8516,21 +8510,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>848</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227332</v>
@@ -8539,21 +8533,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>851</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227838</v>
@@ -8562,21 +8556,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227837</v>
@@ -8585,21 +8579,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227348</v>
@@ -8608,21 +8602,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>862</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227804</v>
@@ -8631,21 +8625,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227580</v>
@@ -8654,21 +8648,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>871</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227249</v>
@@ -8677,21 +8671,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>874</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227550</v>
@@ -8700,21 +8694,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>227336</v>
@@ -8723,21 +8717,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>882</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>227240</v>
@@ -8746,21 +8740,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>231568</v>
@@ -8769,21 +8763,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>890</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>227786</v>
@@ -8792,21 +8786,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>227587</v>
@@ -8815,21 +8809,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>227704</v>
@@ -8838,21 +8832,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>902</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>227594</v>
@@ -8861,21 +8855,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>227405</v>
@@ -8884,21 +8878,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>227547</v>
@@ -8907,21 +8901,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>910</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>227567</v>
@@ -8930,21 +8924,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>227599</v>
@@ -8953,21 +8947,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>918</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>227534</v>
@@ -8976,21 +8970,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>922</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>229206</v>
@@ -8999,21 +8993,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>227319</v>
@@ -9022,21 +9016,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>227794</v>
@@ -9045,21 +9039,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>934</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>227591</v>
@@ -9068,21 +9062,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>227382</v>
@@ -9091,21 +9085,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>940</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>227349</v>
@@ -9114,21 +9108,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>945</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>946</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>227263</v>
@@ -9137,21 +9131,21 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>950</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>227322</v>
@@ -9160,21 +9154,21 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>952</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>954</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>227333</v>
@@ -9183,21 +9177,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>958</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>227377</v>
@@ -9206,21 +9200,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>227605</v>
@@ -9229,21 +9223,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>228096</v>
@@ -9252,21 +9246,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>969</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>227530</v>
@@ -9275,16 +9269,16 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>971</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>973</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galli/Documents/OrgConferenze/24PisaMeeting/pisameet/pm2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0439B-3E69-3A48-934D-3DE5D00394B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D496DB-380C-1F45-A5F4-8FE39FF7318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="35120" windowHeight="20200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35120" windowHeight="20200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
@@ -4617,7 +4617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5168,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5280,7 +5280,7 @@
         <v>227258</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>258</v>
@@ -5855,7 +5855,7 @@
         <v>227404</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>370</v>

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galli/Documents/OrgConferenze/24PisaMeeting/pisameet/pm2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D496DB-380C-1F45-A5F4-8FE39FF7318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A75D99-EE36-774B-8087-F875A73C0838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="35120" windowHeight="20200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35120" windowHeight="20200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
@@ -3483,7 +3483,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5168,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6041,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6234,7 +6234,7 @@
         <v>433</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/pm2024/pm2024.xlsx
+++ b/pm2024/pm2024.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1020">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -43,13 +43,37 @@
     <t xml:space="preserve">End Date</t>
   </si>
   <si>
+    <t xml:space="preserve">362400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Detectors and Particle ID old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/05/2024 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications to Industrial and Societal Challenges old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration and Detector Systems old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 21:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">36240</t>
   </si>
   <si>
     <t xml:space="preserve">Photo Detectors and Particle ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/2024 21:00</t>
   </si>
   <si>
     <t xml:space="preserve">28/05/2024 14:00</t>
@@ -3071,8 +3095,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -3155,13 +3180,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3181,10 +3210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3244,7 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -3229,7 +3258,7 @@
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -3258,24 +3287,24 @@
         <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,24 +3315,24 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,21 +3343,21 @@
         <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>25</v>
@@ -3336,21 +3365,60 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D12" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3383,30 +3451,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>227765</v>
@@ -3415,21 +3483,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>227601</v>
@@ -3438,21 +3506,21 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>227978</v>
@@ -3461,21 +3529,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>227253</v>
@@ -3484,21 +3552,21 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>227811</v>
@@ -3507,21 +3575,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>227366</v>
@@ -3530,21 +3598,21 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>227346</v>
@@ -3553,21 +3621,21 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>227697</v>
@@ -3576,21 +3644,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>227731</v>
@@ -3599,21 +3667,21 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>227378</v>
@@ -3622,21 +3690,21 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>227568</v>
@@ -3645,21 +3713,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="0" t